--- a/June2018/ISWRPQAQ_stats.xlsx
+++ b/June2018/ISWRPQAQ_stats.xlsx
@@ -10002,13 +10002,13 @@
         <v>696</v>
       </c>
       <c r="K51">
-        <v>37.64439655172415</v>
+        <v>37.66393678160921</v>
       </c>
       <c r="L51">
-        <v>2.882454526225498</v>
+        <v>2.838619791584903</v>
       </c>
       <c r="M51">
-        <v>30.1</v>
+        <v>31.3</v>
       </c>
       <c r="N51">
         <v>36</v>
@@ -10026,19 +10026,19 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>3.525201149425293</v>
+        <v>3.544324712643684</v>
       </c>
       <c r="T51">
-        <v>0.8699001843336462</v>
+        <v>0.824833519383008</v>
       </c>
       <c r="U51">
-        <v>0.5669999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="V51">
         <v>3.02</v>
       </c>
       <c r="W51">
-        <v>3.48</v>
+        <v>3.485</v>
       </c>
       <c r="X51">
         <v>4.0925</v>
@@ -10050,13 +10050,13 @@
         <v>696</v>
       </c>
       <c r="AA51">
-        <v>37.63678160919544</v>
+        <v>37.65603448275865</v>
       </c>
       <c r="AB51">
-        <v>2.889459482650189</v>
+        <v>2.845320443238073</v>
       </c>
       <c r="AC51">
-        <v>30.1</v>
+        <v>31.3</v>
       </c>
       <c r="AD51">
         <v>36</v>
@@ -10068,16 +10068,16 @@
         <v>39.825</v>
       </c>
       <c r="AG51">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="AH51">
         <v>696</v>
       </c>
       <c r="AI51">
-        <v>106.6158045977011</v>
+        <v>106.6880747126436</v>
       </c>
       <c r="AJ51">
-        <v>28.28643435571764</v>
+        <v>28.31252388364621</v>
       </c>
       <c r="AK51">
         <v>58.2</v>
@@ -10086,7 +10086,7 @@
         <v>92.57499999999999</v>
       </c>
       <c r="AM51">
-        <v>110</v>
+        <v>110.5</v>
       </c>
       <c r="AN51">
         <v>116</v>
@@ -10098,10 +10098,10 @@
         <v>696</v>
       </c>
       <c r="AQ51">
-        <v>28.19169540229887</v>
+        <v>28.21192528735634</v>
       </c>
       <c r="AR51">
-        <v>15.97599299666184</v>
+        <v>15.99059408869846</v>
       </c>
       <c r="AS51">
         <v>1.24</v>
@@ -10122,22 +10122,22 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.005321984482758619</v>
+        <v>0.005423235201149432</v>
       </c>
       <c r="AZ51">
-        <v>0.01565982697421949</v>
+        <v>0.01566135239789899</v>
       </c>
       <c r="BA51">
-        <v>-0.038</v>
+        <v>-0.0378</v>
       </c>
       <c r="BB51">
-        <v>-0.0028325</v>
+        <v>-0.0028225</v>
       </c>
       <c r="BC51">
-        <v>-0.0001535</v>
+        <v>-0.000148</v>
       </c>
       <c r="BD51">
-        <v>0.009632499999999999</v>
+        <v>0.009702500000000001</v>
       </c>
       <c r="BE51">
         <v>0.105</v>
@@ -10146,22 +10146,22 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.1262639367816093</v>
+        <v>0.1300731925287358</v>
       </c>
       <c r="BH51">
-        <v>0.2384080900180356</v>
+        <v>0.2399444605174804</v>
       </c>
       <c r="BI51">
-        <v>-0.187</v>
+        <v>-0.171</v>
       </c>
       <c r="BJ51">
         <v>-0.072625</v>
       </c>
       <c r="BK51">
-        <v>-0.00257</v>
+        <v>-0.002455</v>
       </c>
       <c r="BL51">
-        <v>0.31425</v>
+        <v>0.3315</v>
       </c>
       <c r="BM51">
         <v>1.01</v>
@@ -10199,16 +10199,16 @@
         <v>696</v>
       </c>
       <c r="K52">
-        <v>37.59310344827592</v>
+        <v>37.68534482758624</v>
       </c>
       <c r="L52">
-        <v>2.867326957277549</v>
+        <v>2.692438256639313</v>
       </c>
       <c r="M52">
-        <v>30.1</v>
+        <v>32.5</v>
       </c>
       <c r="N52">
-        <v>35.9</v>
+        <v>35.975</v>
       </c>
       <c r="O52">
         <v>37.95</v>
@@ -10223,37 +10223,37 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>3.47181178160919</v>
+        <v>3.562945402298848</v>
       </c>
       <c r="T52">
-        <v>0.8647592174074876</v>
+        <v>0.712168299086273</v>
       </c>
       <c r="U52">
-        <v>0.556</v>
+        <v>2.3</v>
       </c>
       <c r="V52">
-        <v>2.9875</v>
+        <v>2.99</v>
       </c>
       <c r="W52">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="X52">
-        <v>4.055</v>
+        <v>4.0625</v>
       </c>
       <c r="Y52">
-        <v>5.05</v>
+        <v>5.06</v>
       </c>
       <c r="Z52">
         <v>696</v>
       </c>
       <c r="AA52">
-        <v>37.58505747126441</v>
+        <v>37.67442528735636</v>
       </c>
       <c r="AB52">
-        <v>2.874728538376135</v>
+        <v>2.698682004482274</v>
       </c>
       <c r="AC52">
-        <v>30.1</v>
+        <v>32.5</v>
       </c>
       <c r="AD52">
         <v>35.9</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>106.1147988505747</v>
+        <v>106.5208333333333</v>
       </c>
       <c r="AJ52">
-        <v>28.23536732060104</v>
+        <v>28.38151764379393</v>
       </c>
       <c r="AK52">
         <v>57.7</v>
@@ -10283,7 +10283,7 @@
         <v>92.09999999999999</v>
       </c>
       <c r="AM52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN52">
         <v>116</v>
@@ -10295,10 +10295,10 @@
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>28.06221264367819</v>
+        <v>28.19214080459772</v>
       </c>
       <c r="AR52">
-        <v>15.92859549745753</v>
+        <v>16.01569241749479</v>
       </c>
       <c r="AS52">
         <v>1.23</v>
@@ -10310,7 +10310,7 @@
         <v>31.2</v>
       </c>
       <c r="AV52">
-        <v>39.2</v>
+        <v>39.325</v>
       </c>
       <c r="AW52">
         <v>111</v>
@@ -10319,22 +10319,22 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.004481161206896552</v>
+        <v>0.005350024568965517</v>
       </c>
       <c r="AZ52">
-        <v>0.01612477373032579</v>
+        <v>0.01701673610950333</v>
       </c>
       <c r="BA52">
-        <v>-0.0432</v>
+        <v>-0.0434</v>
       </c>
       <c r="BB52">
-        <v>-0.0039275</v>
+        <v>-0.003965</v>
       </c>
       <c r="BC52">
-        <v>-0.00034</v>
+        <v>-0.000337</v>
       </c>
       <c r="BD52">
-        <v>0.009209999999999999</v>
+        <v>0.00983</v>
       </c>
       <c r="BE52">
         <v>0.106</v>
@@ -10343,25 +10343,25 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.1044848261494253</v>
+        <v>0.1382149741379311</v>
       </c>
       <c r="BH52">
-        <v>0.2447808796752806</v>
+        <v>0.3231634566632013</v>
       </c>
       <c r="BI52">
-        <v>-0.358</v>
+        <v>-0.364</v>
       </c>
       <c r="BJ52">
-        <v>-0.0969</v>
+        <v>-0.097425</v>
       </c>
       <c r="BK52">
-        <v>-0.005390000000000001</v>
+        <v>-0.005335</v>
       </c>
       <c r="BL52">
-        <v>0.30125</v>
+        <v>0.357</v>
       </c>
       <c r="BM52">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="53" spans="1:65">
@@ -10396,19 +10396,19 @@
         <v>696</v>
       </c>
       <c r="K53">
-        <v>38.34094827586207</v>
+        <v>37.71307471264371</v>
       </c>
       <c r="L53">
-        <v>1.910615168604248</v>
+        <v>2.451900164654257</v>
       </c>
       <c r="M53">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="N53">
-        <v>36.9</v>
+        <v>35.9</v>
       </c>
       <c r="O53">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="P53">
         <v>39.7</v>
@@ -10420,145 +10420,145 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>4.219554597701145</v>
+        <v>3.589568965517241</v>
       </c>
       <c r="T53">
-        <v>1.15821567177212</v>
+        <v>0.6219330166917512</v>
       </c>
       <c r="U53">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="V53">
-        <v>3.32</v>
+        <v>3.0675</v>
       </c>
       <c r="W53">
-        <v>3.91</v>
+        <v>3.47</v>
       </c>
       <c r="X53">
-        <v>4.8</v>
+        <v>4.0425</v>
       </c>
       <c r="Y53">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="Z53">
         <v>696</v>
       </c>
       <c r="AA53">
-        <v>38.34324712643691</v>
+        <v>37.69525862068969</v>
       </c>
       <c r="AB53">
-        <v>1.845955431582095</v>
+        <v>2.455120725085777</v>
       </c>
       <c r="AC53">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="AD53">
-        <v>36.9</v>
+        <v>35.8</v>
       </c>
       <c r="AE53">
-        <v>38.05</v>
+        <v>37.84999999999999</v>
       </c>
       <c r="AF53">
         <v>39.7</v>
       </c>
       <c r="AG53">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="AH53">
         <v>696</v>
       </c>
       <c r="AI53">
-        <v>114.8988505747126</v>
+        <v>106.3801724137931</v>
       </c>
       <c r="AJ53">
-        <v>38.99282758397329</v>
+        <v>28.71151240235634</v>
       </c>
       <c r="AK53">
-        <v>56.9</v>
+        <v>56.8</v>
       </c>
       <c r="AL53">
-        <v>93.5</v>
+        <v>91.375</v>
       </c>
       <c r="AM53">
-        <v>113</v>
+        <v>109.5</v>
       </c>
       <c r="AN53">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AO53">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="AP53">
         <v>696</v>
       </c>
       <c r="AQ53">
-        <v>30.59807471264369</v>
+        <v>28.20119252873563</v>
       </c>
       <c r="AR53">
-        <v>18.80976490699128</v>
+        <v>16.09029652221959</v>
       </c>
       <c r="AS53">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT53">
-        <v>15.05</v>
+        <v>14.425</v>
       </c>
       <c r="AU53">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="AV53">
-        <v>42</v>
+        <v>40.025</v>
       </c>
       <c r="AW53">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AX53">
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.0311962248908046</v>
+        <v>0.005194474137931036</v>
       </c>
       <c r="AZ53">
-        <v>0.04943922252051355</v>
+        <v>0.02062107454043574</v>
       </c>
       <c r="BA53">
-        <v>-0.0518</v>
+        <v>-0.0531</v>
       </c>
       <c r="BB53">
-        <v>-0.004785</v>
+        <v>-0.0056325</v>
       </c>
       <c r="BC53">
-        <v>0.006475</v>
+        <v>-0.0006529999999999999</v>
       </c>
       <c r="BD53">
-        <v>0.0626</v>
+        <v>0.0101</v>
       </c>
       <c r="BE53">
-        <v>0.212</v>
+        <v>0.108</v>
       </c>
       <c r="BF53">
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>1.197640806752874</v>
+        <v>0.1547569540229886</v>
       </c>
       <c r="BH53">
-        <v>2.008563219407506</v>
+        <v>0.528263795316525</v>
       </c>
       <c r="BI53">
-        <v>-0.494</v>
+        <v>-0.602</v>
       </c>
       <c r="BJ53">
-        <v>-0.119</v>
+        <v>-0.13025</v>
       </c>
       <c r="BK53">
-        <v>0.1265</v>
+        <v>-0.01075</v>
       </c>
       <c r="BL53">
-        <v>2.245</v>
+        <v>0.347</v>
       </c>
       <c r="BM53">
-        <v>9.859999999999999</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="54" spans="1:65">
@@ -10593,22 +10593,22 @@
         <v>696</v>
       </c>
       <c r="K54">
-        <v>39.22456896551709</v>
+        <v>37.77873563218401</v>
       </c>
       <c r="L54">
-        <v>0.973881849665254</v>
+        <v>2.174040857682394</v>
       </c>
       <c r="M54">
-        <v>38.1</v>
+        <v>34.6</v>
       </c>
       <c r="N54">
-        <v>38.5</v>
+        <v>35.9</v>
       </c>
       <c r="O54">
-        <v>38.8</v>
+        <v>37.75</v>
       </c>
       <c r="P54">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="Q54">
         <v>41.2</v>
@@ -10617,46 +10617,46 @@
         <v>696</v>
       </c>
       <c r="S54">
-        <v>5.104109195402303</v>
+        <v>3.655344827586209</v>
       </c>
       <c r="T54">
-        <v>1.712452844575213</v>
+        <v>0.7284331437761637</v>
       </c>
       <c r="U54">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="V54">
-        <v>3.57</v>
+        <v>3.01</v>
       </c>
       <c r="W54">
-        <v>4.84</v>
+        <v>3.54</v>
       </c>
       <c r="X54">
-        <v>6.335</v>
+        <v>4.2925</v>
       </c>
       <c r="Y54">
-        <v>8.970000000000001</v>
+        <v>5.36</v>
       </c>
       <c r="Z54">
         <v>696</v>
       </c>
       <c r="AA54">
-        <v>39.21939655172407</v>
+        <v>37.76408045977021</v>
       </c>
       <c r="AB54">
-        <v>0.9695568568349059</v>
+        <v>2.173516863543242</v>
       </c>
       <c r="AC54">
-        <v>38.1</v>
+        <v>34.8</v>
       </c>
       <c r="AD54">
-        <v>38.5</v>
+        <v>35.8</v>
       </c>
       <c r="AE54">
-        <v>38.8</v>
+        <v>37.75</v>
       </c>
       <c r="AF54">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="AG54">
         <v>41.2</v>
@@ -10665,97 +10665,97 @@
         <v>696</v>
       </c>
       <c r="AI54">
-        <v>130.3183908045976</v>
+        <v>106.8869252873563</v>
       </c>
       <c r="AJ54">
-        <v>54.81597630631014</v>
+        <v>29.78063421301939</v>
       </c>
       <c r="AK54">
-        <v>56.3</v>
+        <v>55.9</v>
       </c>
       <c r="AL54">
-        <v>99.15000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AM54">
-        <v>115</v>
+        <v>109.5</v>
       </c>
       <c r="AN54">
-        <v>139.75</v>
+        <v>116</v>
       </c>
       <c r="AO54">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="AP54">
         <v>696</v>
       </c>
       <c r="AQ54">
-        <v>34.6895545977011</v>
+        <v>28.42397988505746</v>
       </c>
       <c r="AR54">
-        <v>22.95396165433474</v>
+        <v>16.40514051195115</v>
       </c>
       <c r="AS54">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AT54">
-        <v>16.475</v>
+        <v>14.3</v>
       </c>
       <c r="AU54">
-        <v>32.7</v>
+        <v>30.7</v>
       </c>
       <c r="AV54">
-        <v>47.225</v>
+        <v>40.7</v>
       </c>
       <c r="AW54">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="AX54">
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.01322675554597701</v>
+        <v>0.006325749999999996</v>
       </c>
       <c r="AZ54">
-        <v>0.02367728266931981</v>
+        <v>0.02364317079590155</v>
       </c>
       <c r="BA54">
-        <v>-0.0589</v>
+        <v>-0.0603</v>
       </c>
       <c r="BB54">
-        <v>-0.000574</v>
+        <v>-0.006035</v>
       </c>
       <c r="BC54">
-        <v>0.006855</v>
+        <v>-0.000695</v>
       </c>
       <c r="BD54">
-        <v>0.023725</v>
+        <v>0.012525</v>
       </c>
       <c r="BE54">
-        <v>0.117</v>
+        <v>0.128</v>
       </c>
       <c r="BF54">
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.5097383189655176</v>
+        <v>0.2115533764367815</v>
       </c>
       <c r="BH54">
-        <v>0.813490919701559</v>
+        <v>0.6773159261781946</v>
       </c>
       <c r="BI54">
-        <v>-0.59</v>
+        <v>-0.62</v>
       </c>
       <c r="BJ54">
-        <v>-0.01435</v>
+        <v>-0.145</v>
       </c>
       <c r="BK54">
-        <v>0.1825</v>
+        <v>-0.010515</v>
       </c>
       <c r="BL54">
-        <v>0.791</v>
+        <v>0.41325</v>
       </c>
       <c r="BM54">
-        <v>5.82</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="55" spans="1:65">
@@ -10790,22 +10790,22 @@
         <v>696</v>
       </c>
       <c r="K55">
-        <v>39.24712643678156</v>
+        <v>38.00919540229881</v>
       </c>
       <c r="L55">
-        <v>0.8954194008481139</v>
+        <v>1.834921498497384</v>
       </c>
       <c r="M55">
-        <v>38.5</v>
+        <v>35.6</v>
       </c>
       <c r="N55">
-        <v>38.5</v>
+        <v>36.3</v>
       </c>
       <c r="O55">
-        <v>38.8</v>
+        <v>37.75</v>
       </c>
       <c r="P55">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="Q55">
         <v>41.1</v>
@@ -10814,46 +10814,46 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>5.124956896551721</v>
+        <v>3.883807471264368</v>
       </c>
       <c r="T55">
-        <v>1.76717691325564</v>
+        <v>0.9986544978343713</v>
       </c>
       <c r="U55">
-        <v>2.64</v>
+        <v>2.43</v>
       </c>
       <c r="V55">
-        <v>3.48</v>
+        <v>3.06</v>
       </c>
       <c r="W55">
-        <v>4.87</v>
+        <v>3.595</v>
       </c>
       <c r="X55">
-        <v>6.415</v>
+        <v>4.55</v>
       </c>
       <c r="Y55">
-        <v>8.960000000000001</v>
+        <v>6.54</v>
       </c>
       <c r="Z55">
         <v>696</v>
       </c>
       <c r="AA55">
-        <v>39.23505747126435</v>
+        <v>37.99439655172409</v>
       </c>
       <c r="AB55">
-        <v>0.9012418272720601</v>
+        <v>1.832232646215702</v>
       </c>
       <c r="AC55">
-        <v>38.4</v>
+        <v>35.8</v>
       </c>
       <c r="AD55">
-        <v>38.5</v>
+        <v>36.3</v>
       </c>
       <c r="AE55">
-        <v>38.8</v>
+        <v>37.7</v>
       </c>
       <c r="AF55">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="AG55">
         <v>41.1</v>
@@ -10862,97 +10862,97 @@
         <v>696</v>
       </c>
       <c r="AI55">
-        <v>131.039511494253</v>
+        <v>110.409051724138</v>
       </c>
       <c r="AJ55">
-        <v>55.74190967440487</v>
+        <v>34.72388585518117</v>
       </c>
       <c r="AK55">
-        <v>55.8</v>
+        <v>55.4</v>
       </c>
       <c r="AL55">
-        <v>100.325</v>
+        <v>91.375</v>
       </c>
       <c r="AM55">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AN55">
-        <v>140.75</v>
+        <v>117</v>
       </c>
       <c r="AO55">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="AP55">
         <v>696</v>
       </c>
       <c r="AQ55">
-        <v>34.88257183908053</v>
+        <v>29.48521551724136</v>
       </c>
       <c r="AR55">
-        <v>23.16640643667196</v>
+        <v>17.74122889856233</v>
       </c>
       <c r="AS55">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AT55">
-        <v>16.975</v>
+        <v>14.575</v>
       </c>
       <c r="AU55">
-        <v>32.6</v>
+        <v>30.6</v>
       </c>
       <c r="AV55">
-        <v>47.5</v>
+        <v>41.8</v>
       </c>
       <c r="AW55">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="AX55">
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.006004818821839088</v>
+        <v>0.01036810344827586</v>
       </c>
       <c r="AZ55">
-        <v>0.01784791797608613</v>
+        <v>0.02658502859066096</v>
       </c>
       <c r="BA55">
-        <v>-0.0591</v>
+        <v>-0.0623</v>
       </c>
       <c r="BB55">
-        <v>-0.0034425</v>
+        <v>-0.004695</v>
       </c>
       <c r="BC55">
-        <v>-0.000245</v>
+        <v>-0.0002699999999999999</v>
       </c>
       <c r="BD55">
-        <v>0.013325</v>
+        <v>0.0192</v>
       </c>
       <c r="BE55">
-        <v>0.0762</v>
+        <v>0.141</v>
       </c>
       <c r="BF55">
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.2243461910919535</v>
+        <v>0.3636941666666664</v>
       </c>
       <c r="BH55">
-        <v>0.3740105514499812</v>
+        <v>0.8194927520109262</v>
       </c>
       <c r="BI55">
-        <v>-0.424</v>
+        <v>-0.453</v>
       </c>
       <c r="BJ55">
-        <v>-0.08015</v>
+        <v>-0.121</v>
       </c>
       <c r="BK55">
-        <v>-0.00346</v>
+        <v>-0.004070000000000001</v>
       </c>
       <c r="BL55">
-        <v>0.594</v>
+        <v>0.584</v>
       </c>
       <c r="BM55">
-        <v>1.25</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="56" spans="1:65">
@@ -10987,70 +10987,70 @@
         <v>696</v>
       </c>
       <c r="K56">
-        <v>39.38290229885045</v>
+        <v>38.58850574712646</v>
       </c>
       <c r="L56">
-        <v>0.9908985366147318</v>
+        <v>1.547050126832014</v>
       </c>
       <c r="M56">
-        <v>38.5</v>
+        <v>36.5</v>
       </c>
       <c r="N56">
-        <v>38.6</v>
+        <v>37.3</v>
       </c>
       <c r="O56">
-        <v>38.9</v>
+        <v>38.1</v>
       </c>
       <c r="P56">
-        <v>39.9</v>
+        <v>39.7</v>
       </c>
       <c r="Q56">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="R56">
         <v>696</v>
       </c>
       <c r="S56">
-        <v>5.262586206896551</v>
+        <v>4.467284482758626</v>
       </c>
       <c r="T56">
-        <v>1.688691948270849</v>
+        <v>1.261522072378046</v>
       </c>
       <c r="U56">
-        <v>2.76</v>
+        <v>2.46</v>
       </c>
       <c r="V56">
-        <v>3.75</v>
+        <v>3.5175</v>
       </c>
       <c r="W56">
-        <v>4.98</v>
+        <v>4.19</v>
       </c>
       <c r="X56">
-        <v>6.4625</v>
+        <v>5.065</v>
       </c>
       <c r="Y56">
-        <v>9.01</v>
+        <v>7.8</v>
       </c>
       <c r="Z56">
         <v>696</v>
       </c>
       <c r="AA56">
-        <v>39.3656609195401</v>
+        <v>38.60301724137931</v>
       </c>
       <c r="AB56">
-        <v>1.001846709204509</v>
+        <v>1.542679936588489</v>
       </c>
       <c r="AC56">
-        <v>38.4</v>
+        <v>36.6</v>
       </c>
       <c r="AD56">
-        <v>38.5</v>
+        <v>37.3</v>
       </c>
       <c r="AE56">
-        <v>38.9</v>
+        <v>38.1</v>
       </c>
       <c r="AF56">
-        <v>39.9</v>
+        <v>39.7</v>
       </c>
       <c r="AG56">
         <v>41.4</v>
@@ -11059,97 +11059,97 @@
         <v>696</v>
       </c>
       <c r="AI56">
-        <v>132.2816091954023</v>
+        <v>119.0903735632184</v>
       </c>
       <c r="AJ56">
-        <v>55.68330962365798</v>
+        <v>43.16299816735976</v>
       </c>
       <c r="AK56">
-        <v>56.2</v>
+        <v>55.8</v>
       </c>
       <c r="AL56">
-        <v>100.65</v>
+        <v>94.72499999999999</v>
       </c>
       <c r="AM56">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AN56">
-        <v>140.75</v>
+        <v>129.25</v>
       </c>
       <c r="AO56">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="AP56">
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>35.17142241379305</v>
+        <v>31.74294540229885</v>
       </c>
       <c r="AR56">
-        <v>23.19886105154595</v>
+        <v>20.0070698821431</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT56">
-        <v>17.075</v>
+        <v>15.5</v>
       </c>
       <c r="AU56">
-        <v>32.9</v>
+        <v>32.1</v>
       </c>
       <c r="AV56">
-        <v>47.875</v>
+        <v>44.3</v>
       </c>
       <c r="AW56">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AX56">
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.01114858735632185</v>
+        <v>0.02041234885057475</v>
       </c>
       <c r="AZ56">
-        <v>0.01574693860096995</v>
+        <v>0.02538579931889636</v>
       </c>
       <c r="BA56">
-        <v>-0.034</v>
+        <v>-0.0361</v>
       </c>
       <c r="BB56">
-        <v>0.00147</v>
+        <v>0.00206</v>
       </c>
       <c r="BC56">
-        <v>0.009094999999999999</v>
+        <v>0.0133</v>
       </c>
       <c r="BD56">
-        <v>0.015425</v>
+        <v>0.0338</v>
       </c>
       <c r="BE56">
-        <v>0.08119999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="BF56">
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.3592285804597704</v>
+        <v>0.6841187385057473</v>
       </c>
       <c r="BH56">
-        <v>0.3491934978637635</v>
+        <v>0.9123247825382168</v>
       </c>
       <c r="BI56">
-        <v>-0.121</v>
+        <v>-0.128</v>
       </c>
       <c r="BJ56">
-        <v>0.033775</v>
+        <v>0.04605</v>
       </c>
       <c r="BK56">
-        <v>0.2785</v>
+        <v>0.3635</v>
       </c>
       <c r="BL56">
-        <v>0.6767500000000001</v>
+        <v>0.9015</v>
       </c>
       <c r="BM56">
-        <v>1.36</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="57" spans="1:65">
@@ -11184,70 +11184,70 @@
         <v>696</v>
       </c>
       <c r="K57">
-        <v>39.41221264367802</v>
+        <v>39.25818965517228</v>
       </c>
       <c r="L57">
-        <v>0.9908982862586883</v>
+        <v>1.100852069574777</v>
       </c>
       <c r="M57">
-        <v>38.5</v>
+        <v>37.8</v>
       </c>
       <c r="N57">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="O57">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="P57">
-        <v>39.925</v>
+        <v>39.9</v>
       </c>
       <c r="Q57">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="R57">
         <v>696</v>
       </c>
       <c r="S57">
-        <v>5.292227011494257</v>
+        <v>5.132672413793101</v>
       </c>
       <c r="T57">
-        <v>1.681433975254406</v>
+        <v>1.617684298068176</v>
       </c>
       <c r="U57">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="V57">
-        <v>3.7725</v>
+        <v>3.76</v>
       </c>
       <c r="W57">
-        <v>5.07</v>
+        <v>4.88</v>
       </c>
       <c r="X57">
-        <v>6.487500000000001</v>
+        <v>6.24</v>
       </c>
       <c r="Y57">
-        <v>9.01</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="Z57">
         <v>696</v>
       </c>
       <c r="AA57">
-        <v>39.39985632183895</v>
+        <v>39.24971264367807</v>
       </c>
       <c r="AB57">
-        <v>0.9977023861198925</v>
+        <v>1.093025595893691</v>
       </c>
       <c r="AC57">
-        <v>38.5</v>
+        <v>37.8</v>
       </c>
       <c r="AD57">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="AE57">
-        <v>38.95</v>
+        <v>38.8</v>
       </c>
       <c r="AF57">
-        <v>39.925</v>
+        <v>39.825</v>
       </c>
       <c r="AG57">
         <v>41.4</v>
@@ -11256,22 +11256,22 @@
         <v>696</v>
       </c>
       <c r="AI57">
-        <v>132.880172413793</v>
+        <v>130.0579022988506</v>
       </c>
       <c r="AJ57">
-        <v>55.89737753181507</v>
+        <v>53.66089551291514</v>
       </c>
       <c r="AK57">
-        <v>57.6</v>
+        <v>57.4</v>
       </c>
       <c r="AL57">
-        <v>102.15</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AM57">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AN57">
-        <v>140.75</v>
+        <v>139</v>
       </c>
       <c r="AO57">
         <v>414</v>
@@ -11280,22 +11280,22 @@
         <v>696</v>
       </c>
       <c r="AQ57">
-        <v>35.300632183908</v>
+        <v>34.58941091954026</v>
       </c>
       <c r="AR57">
-        <v>23.23970006622532</v>
+        <v>22.67734752416212</v>
       </c>
       <c r="AS57">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT57">
-        <v>17.6</v>
+        <v>16.5</v>
       </c>
       <c r="AU57">
-        <v>33.05</v>
+        <v>32.9</v>
       </c>
       <c r="AV57">
-        <v>47.925</v>
+        <v>47.3</v>
       </c>
       <c r="AW57">
         <v>137</v>
@@ -11304,49 +11304,49 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.007628933908045977</v>
+        <v>0.01919236362068968</v>
       </c>
       <c r="AZ57">
-        <v>0.01673337173306016</v>
+        <v>0.02662054390556711</v>
       </c>
       <c r="BA57">
-        <v>-0.0376</v>
+        <v>-0.04</v>
       </c>
       <c r="BB57">
-        <v>-0.00176</v>
+        <v>0.000788</v>
       </c>
       <c r="BC57">
-        <v>-9.180000000000001E-05</v>
+        <v>0.01005</v>
       </c>
       <c r="BD57">
-        <v>0.0137</v>
+        <v>0.0333</v>
       </c>
       <c r="BE57">
-        <v>0.07920000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="BF57">
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.2577659511494252</v>
+        <v>0.7219618033045986</v>
       </c>
       <c r="BH57">
-        <v>0.362172997408054</v>
+        <v>1.044473247322314</v>
       </c>
       <c r="BI57">
-        <v>-0.222</v>
+        <v>-0.237</v>
       </c>
       <c r="BJ57">
-        <v>-0.041025</v>
+        <v>0.009747500000000001</v>
       </c>
       <c r="BK57">
-        <v>-0.001315</v>
+        <v>0.292</v>
       </c>
       <c r="BL57">
-        <v>0.618</v>
+        <v>0.993</v>
       </c>
       <c r="BM57">
-        <v>1.27</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="58" spans="1:65">
@@ -11381,10 +11381,10 @@
         <v>696</v>
       </c>
       <c r="K58">
-        <v>39.38491379310331</v>
+        <v>39.38275862068951</v>
       </c>
       <c r="L58">
-        <v>0.9765241507602915</v>
+        <v>0.9768199052351992</v>
       </c>
       <c r="M58">
         <v>38.5</v>
@@ -11405,10 +11405,10 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>5.264454022988505</v>
+        <v>5.262528735632183</v>
       </c>
       <c r="T58">
-        <v>1.694021902183474</v>
+        <v>1.693881137661552</v>
       </c>
       <c r="U58">
         <v>2.91</v>
@@ -11420,7 +11420,7 @@
         <v>5.025</v>
       </c>
       <c r="X58">
-        <v>6.4675</v>
+        <v>6.46</v>
       </c>
       <c r="Y58">
         <v>8.98</v>
@@ -11429,10 +11429,10 @@
         <v>696</v>
       </c>
       <c r="AA58">
-        <v>39.37471264367804</v>
+        <v>39.37284482758609</v>
       </c>
       <c r="AB58">
-        <v>0.9839539546815341</v>
+        <v>0.9837797958274191</v>
       </c>
       <c r="AC58">
         <v>38.5</v>
@@ -11453,10 +11453,10 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>132.5558908045979</v>
+        <v>132.5064655172415</v>
       </c>
       <c r="AJ58">
-        <v>55.86462923694081</v>
+        <v>55.84106171952931</v>
       </c>
       <c r="AK58">
         <v>57.3</v>
@@ -11477,10 +11477,10 @@
         <v>696</v>
       </c>
       <c r="AQ58">
-        <v>35.23926724137934</v>
+        <v>35.2307471264368</v>
       </c>
       <c r="AR58">
-        <v>23.23186622377271</v>
+        <v>23.22736073330854</v>
       </c>
       <c r="AS58">
         <v>1.45</v>
@@ -11501,49 +11501,49 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.00750579813218391</v>
+        <v>0.007773708477011491</v>
       </c>
       <c r="AZ58">
-        <v>0.01696823330209124</v>
+        <v>0.01711884401961683</v>
       </c>
       <c r="BA58">
-        <v>-0.0394</v>
+        <v>-0.0392</v>
       </c>
       <c r="BB58">
-        <v>-0.0020425</v>
+        <v>-0.001735</v>
       </c>
       <c r="BC58">
-        <v>-0.000112</v>
+        <v>-7.894999999999999E-05</v>
       </c>
       <c r="BD58">
-        <v>0.013725</v>
+        <v>0.014</v>
       </c>
       <c r="BE58">
-        <v>0.0804</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="BF58">
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.2543880071839078</v>
+        <v>0.262327084770115</v>
       </c>
       <c r="BH58">
-        <v>0.3638116499825702</v>
+        <v>0.3671319963900974</v>
       </c>
       <c r="BI58">
-        <v>-0.238</v>
+        <v>-0.226</v>
       </c>
       <c r="BJ58">
-        <v>-0.048825</v>
+        <v>-0.038325</v>
       </c>
       <c r="BK58">
-        <v>-0.00153</v>
+        <v>-0.001013</v>
       </c>
       <c r="BL58">
-        <v>0.61525</v>
+        <v>0.627</v>
       </c>
       <c r="BM58">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="59" spans="1:65">
@@ -11578,10 +11578,10 @@
         <v>696</v>
       </c>
       <c r="K59">
-        <v>39.36249999999984</v>
+        <v>39.36235632183892</v>
       </c>
       <c r="L59">
-        <v>0.9622450143419314</v>
+        <v>0.9623664893908264</v>
       </c>
       <c r="M59">
         <v>38.5</v>
@@ -11602,10 +11602,10 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>5.242686781609195</v>
+        <v>5.24244252873563</v>
       </c>
       <c r="T59">
-        <v>1.704004034395193</v>
+        <v>1.704041935386456</v>
       </c>
       <c r="U59">
         <v>2.87</v>
@@ -11614,7 +11614,7 @@
         <v>3.6875</v>
       </c>
       <c r="W59">
-        <v>5</v>
+        <v>4.995</v>
       </c>
       <c r="X59">
         <v>6.45</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>132.3129310344827</v>
+        <v>132.306896551724</v>
       </c>
       <c r="AJ59">
-        <v>55.80762877662935</v>
+        <v>55.80254973283644</v>
       </c>
       <c r="AK59">
         <v>57.1</v>
@@ -11674,10 +11674,10 @@
         <v>696</v>
       </c>
       <c r="AQ59">
-        <v>35.18494252873563</v>
+        <v>35.18419540229885</v>
       </c>
       <c r="AR59">
-        <v>23.22658796478512</v>
+        <v>23.22643151219187</v>
       </c>
       <c r="AS59">
         <v>1.45</v>
@@ -11698,46 +11698,46 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.007621873635057471</v>
+        <v>0.007702385545977016</v>
       </c>
       <c r="AZ59">
-        <v>0.01714416683309362</v>
+        <v>0.01726054486110186</v>
       </c>
       <c r="BA59">
-        <v>-0.0402</v>
+        <v>-0.04</v>
       </c>
       <c r="BB59">
-        <v>-0.0018725</v>
+        <v>-0.00185</v>
       </c>
       <c r="BC59">
-        <v>-9.36E-05</v>
+        <v>-9.155E-05</v>
       </c>
       <c r="BD59">
-        <v>0.0139</v>
+        <v>0.013925</v>
       </c>
       <c r="BE59">
-        <v>0.08169999999999999</v>
+        <v>0.0837</v>
       </c>
       <c r="BF59">
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.2579393261494252</v>
+        <v>0.2595614531609197</v>
       </c>
       <c r="BH59">
-        <v>0.3651710944854905</v>
+        <v>0.3660070497335637</v>
       </c>
       <c r="BI59">
         <v>-0.208</v>
       </c>
       <c r="BJ59">
-        <v>-0.043975</v>
+        <v>-0.043225</v>
       </c>
       <c r="BK59">
-        <v>-0.00124</v>
+        <v>-0.001135</v>
       </c>
       <c r="BL59">
-        <v>0.622</v>
+        <v>0.62425</v>
       </c>
       <c r="BM59">
         <v>1.25</v>
@@ -11775,10 +11775,10 @@
         <v>696</v>
       </c>
       <c r="K60">
-        <v>39.35086206896537</v>
+        <v>39.35057471264354</v>
       </c>
       <c r="L60">
-        <v>0.9582954612329103</v>
+        <v>0.9581755521065002</v>
       </c>
       <c r="M60">
         <v>38.5</v>
@@ -11799,10 +11799,10 @@
         <v>696</v>
       </c>
       <c r="S60">
-        <v>5.227270114942527</v>
+        <v>5.227112068965516</v>
       </c>
       <c r="T60">
-        <v>1.711107854859451</v>
+        <v>1.71101782795106</v>
       </c>
       <c r="U60">
         <v>2.85</v>
@@ -11823,10 +11823,10 @@
         <v>696</v>
       </c>
       <c r="AA60">
-        <v>39.34037356321829</v>
+        <v>39.3397988505746</v>
       </c>
       <c r="AB60">
-        <v>0.9664110739467188</v>
+        <v>0.9663605027893024</v>
       </c>
       <c r="AC60">
         <v>38.5</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>132.1471264367816</v>
+        <v>132.1454022988506</v>
       </c>
       <c r="AJ60">
-        <v>55.7712725392887</v>
+        <v>55.76968369211443</v>
       </c>
       <c r="AK60">
         <v>57</v>
@@ -11871,10 +11871,10 @@
         <v>696</v>
       </c>
       <c r="AQ60">
-        <v>35.1457327586207</v>
+        <v>35.14426724137932</v>
       </c>
       <c r="AR60">
-        <v>23.2211806696496</v>
+        <v>23.22094204355949</v>
       </c>
       <c r="AS60">
         <v>1.44</v>
@@ -11895,46 +11895,46 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.007779708908045969</v>
+        <v>0.007852181034482755</v>
       </c>
       <c r="AZ60">
-        <v>0.01728803727434255</v>
+        <v>0.01739742093731797</v>
       </c>
       <c r="BA60">
-        <v>-0.0403</v>
+        <v>-0.0401</v>
       </c>
       <c r="BB60">
-        <v>-0.00177</v>
+        <v>-0.00171</v>
       </c>
       <c r="BC60">
-        <v>-7.554999999999999E-05</v>
+        <v>-6.695E-05</v>
       </c>
       <c r="BD60">
-        <v>0.014025</v>
+        <v>0.0141</v>
       </c>
       <c r="BE60">
-        <v>0.0832</v>
+        <v>0.0851</v>
       </c>
       <c r="BF60">
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.2624129109195401</v>
+        <v>0.2637880629310343</v>
       </c>
       <c r="BH60">
-        <v>0.3667163086121223</v>
+        <v>0.3674590250968158</v>
       </c>
       <c r="BI60">
         <v>-0.176</v>
       </c>
       <c r="BJ60">
-        <v>-0.039075</v>
+        <v>-0.038125</v>
       </c>
       <c r="BK60">
-        <v>-0.0010025</v>
+        <v>-0.0009365</v>
       </c>
       <c r="BL60">
-        <v>0.63</v>
+        <v>0.63125</v>
       </c>
       <c r="BM60">
         <v>1.27</v>
@@ -11972,10 +11972,10 @@
         <v>696</v>
       </c>
       <c r="K61">
-        <v>39.3333333333332</v>
+        <v>39.33275862068952</v>
       </c>
       <c r="L61">
-        <v>0.9458175000523509</v>
+        <v>0.946111392781776</v>
       </c>
       <c r="M61">
         <v>38.5</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>5.208965517241376</v>
+        <v>5.208836206896549</v>
       </c>
       <c r="T61">
-        <v>1.720206217842139</v>
+        <v>1.720185851314117</v>
       </c>
       <c r="U61">
         <v>2.81</v>
@@ -12044,10 +12044,10 @@
         <v>696</v>
       </c>
       <c r="AI61">
-        <v>131.9665229885058</v>
+        <v>131.9635057471265</v>
       </c>
       <c r="AJ61">
-        <v>55.76091911633771</v>
+        <v>55.7555682033434</v>
       </c>
       <c r="AK61">
         <v>56.8</v>
@@ -12068,10 +12068,10 @@
         <v>696</v>
       </c>
       <c r="AQ61">
-        <v>35.0995114942529</v>
+        <v>35.09863505747129</v>
       </c>
       <c r="AR61">
-        <v>23.21679795103426</v>
+        <v>23.21703270202222</v>
       </c>
       <c r="AS61">
         <v>1.44</v>
@@ -12092,46 +12092,46 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.007716338505747125</v>
+        <v>0.007782026293103442</v>
       </c>
       <c r="AZ61">
-        <v>0.01754000957200825</v>
+        <v>0.01764166372965022</v>
       </c>
       <c r="BA61">
-        <v>-0.0417</v>
+        <v>-0.0416</v>
       </c>
       <c r="BB61">
-        <v>-0.001965</v>
+        <v>-0.001935</v>
       </c>
       <c r="BC61">
-        <v>-9.435E-05</v>
+        <v>-8.245E-05</v>
       </c>
       <c r="BD61">
-        <v>0.0141</v>
+        <v>0.014125</v>
       </c>
       <c r="BE61">
-        <v>0.0844</v>
+        <v>0.0863</v>
       </c>
       <c r="BF61">
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.2609024540229883</v>
+        <v>0.2621786321839081</v>
       </c>
       <c r="BH61">
-        <v>0.3706443985077386</v>
+        <v>0.371274730147254</v>
       </c>
       <c r="BI61">
         <v>-0.214</v>
       </c>
       <c r="BJ61">
-        <v>-0.04515</v>
+        <v>-0.0439</v>
       </c>
       <c r="BK61">
-        <v>-0.00116</v>
+        <v>-0.001069</v>
       </c>
       <c r="BL61">
-        <v>0.631</v>
+        <v>0.633</v>
       </c>
       <c r="BM61">
         <v>1.28</v>
@@ -12169,10 +12169,10 @@
         <v>696</v>
       </c>
       <c r="K62">
-        <v>39.31221264367805</v>
+        <v>39.3117816091953</v>
       </c>
       <c r="L62">
-        <v>0.9351691206482418</v>
+        <v>0.9352285073017831</v>
       </c>
       <c r="M62">
         <v>38.5</v>
@@ -12184,7 +12184,7 @@
         <v>38.84999999999999</v>
       </c>
       <c r="P62">
-        <v>39.8</v>
+        <v>39.725</v>
       </c>
       <c r="Q62">
         <v>41.2</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>5.191091954022987</v>
+        <v>5.190847701149424</v>
       </c>
       <c r="T62">
-        <v>1.728738705228976</v>
+        <v>1.7287323920279</v>
       </c>
       <c r="U62">
         <v>2.78</v>
@@ -12217,10 +12217,10 @@
         <v>696</v>
       </c>
       <c r="AA62">
-        <v>39.29999999999996</v>
+        <v>39.29985632183904</v>
       </c>
       <c r="AB62">
-        <v>0.9460558031817223</v>
+        <v>0.9460481877639689</v>
       </c>
       <c r="AC62">
         <v>38.5</v>
@@ -12241,10 +12241,10 @@
         <v>696</v>
       </c>
       <c r="AI62">
-        <v>131.7770114942528</v>
+        <v>131.7752873563218</v>
       </c>
       <c r="AJ62">
-        <v>55.76493821459464</v>
+        <v>55.76404059014101</v>
       </c>
       <c r="AK62">
         <v>56.6</v>
@@ -12265,10 +12265,10 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>35.05334770114946</v>
+        <v>35.05245689655176</v>
       </c>
       <c r="AR62">
-        <v>23.21054122653263</v>
+        <v>23.21025270533738</v>
       </c>
       <c r="AS62">
         <v>1.44</v>
@@ -12289,46 +12289,46 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.007804234913793105</v>
+        <v>0.007867484913793099</v>
       </c>
       <c r="AZ62">
-        <v>0.01772226265058415</v>
+        <v>0.01781880849228523</v>
       </c>
       <c r="BA62">
-        <v>-0.0423</v>
+        <v>-0.0421</v>
       </c>
       <c r="BB62">
-        <v>-0.001925</v>
+        <v>-0.00188</v>
       </c>
       <c r="BC62">
-        <v>-7.85E-05</v>
+        <v>-6.644999999999999E-05</v>
       </c>
       <c r="BD62">
         <v>0.014225</v>
       </c>
       <c r="BE62">
-        <v>0.0858</v>
+        <v>0.0876</v>
       </c>
       <c r="BF62">
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.2635652068965518</v>
+        <v>0.2647502341954021</v>
       </c>
       <c r="BH62">
-        <v>0.3728111481593246</v>
+        <v>0.3734272547847863</v>
       </c>
       <c r="BI62">
         <v>-0.2</v>
       </c>
       <c r="BJ62">
-        <v>-0.0433</v>
+        <v>-0.042325</v>
       </c>
       <c r="BK62">
-        <v>-0.001115</v>
+        <v>-0.0010315</v>
       </c>
       <c r="BL62">
-        <v>0.636</v>
+        <v>0.638</v>
       </c>
       <c r="BM62">
         <v>1.29</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>39.2939655172413</v>
+        <v>39.29353448275855</v>
       </c>
       <c r="L63">
-        <v>0.9289079650010116</v>
+        <v>0.9291915765113146</v>
       </c>
       <c r="M63">
         <v>38.5</v>
@@ -12390,10 +12390,10 @@
         <v>696</v>
       </c>
       <c r="S63">
-        <v>5.17179597701149</v>
+        <v>5.171594827586205</v>
       </c>
       <c r="T63">
-        <v>1.73844677844339</v>
+        <v>1.73840981241101</v>
       </c>
       <c r="U63">
         <v>2.75</v>
@@ -12414,10 +12414,10 @@
         <v>696</v>
       </c>
       <c r="AA63">
-        <v>39.28362068965514</v>
+        <v>39.28347701149421</v>
       </c>
       <c r="AB63">
-        <v>0.9358205539279704</v>
+        <v>0.9359333322136031</v>
       </c>
       <c r="AC63">
         <v>38.5</v>
@@ -12438,10 +12438,10 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>131.5896551724138</v>
+        <v>131.5886494252874</v>
       </c>
       <c r="AJ63">
-        <v>55.74017557746026</v>
+        <v>55.74108336385475</v>
       </c>
       <c r="AK63">
         <v>56.4</v>
@@ -12462,10 +12462,10 @@
         <v>696</v>
       </c>
       <c r="AQ63">
-        <v>35.00027298850573</v>
+        <v>34.99952586206894</v>
       </c>
       <c r="AR63">
-        <v>23.1809491195603</v>
+        <v>23.18098938129546</v>
       </c>
       <c r="AS63">
         <v>1.44</v>
@@ -12486,46 +12486,46 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.007783140086206896</v>
+        <v>0.007843070689655169</v>
       </c>
       <c r="AZ63">
-        <v>0.01796408257206312</v>
+        <v>0.01805687590400818</v>
       </c>
       <c r="BA63">
-        <v>-0.0435</v>
+        <v>-0.0434</v>
       </c>
       <c r="BB63">
-        <v>-0.00205</v>
+        <v>-0.002</v>
       </c>
       <c r="BC63">
-        <v>-8.784999999999999E-05</v>
+        <v>-7.669999999999999E-05</v>
       </c>
       <c r="BD63">
-        <v>0.0143</v>
+        <v>0.014325</v>
       </c>
       <c r="BE63">
-        <v>0.0871</v>
+        <v>0.0888</v>
       </c>
       <c r="BF63">
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.2632921379310346</v>
+        <v>0.2644337068965517</v>
       </c>
       <c r="BH63">
-        <v>0.376355681484778</v>
+        <v>0.3769289175727645</v>
       </c>
       <c r="BI63">
         <v>-0.221</v>
       </c>
       <c r="BJ63">
-        <v>-0.046375</v>
+        <v>-0.045175</v>
       </c>
       <c r="BK63">
-        <v>-0.00121</v>
+        <v>-0.00111</v>
       </c>
       <c r="BL63">
-        <v>0.639</v>
+        <v>0.64025</v>
       </c>
       <c r="BM63">
         <v>1.31</v>
@@ -12563,10 +12563,10 @@
         <v>696</v>
       </c>
       <c r="K64">
-        <v>39.27902298850566</v>
+        <v>39.27873563218382</v>
       </c>
       <c r="L64">
-        <v>0.9229244539355359</v>
+        <v>0.923011404994596</v>
       </c>
       <c r="M64">
         <v>38.5</v>
@@ -12587,10 +12587,10 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>5.155747126436788</v>
+        <v>5.155689655172421</v>
       </c>
       <c r="T64">
-        <v>1.745513307650782</v>
+        <v>1.74549626798029</v>
       </c>
       <c r="U64">
         <v>2.72</v>
@@ -12611,10 +12611,10 @@
         <v>696</v>
       </c>
       <c r="AA64">
-        <v>39.2716954022988</v>
+        <v>39.27155172413789</v>
       </c>
       <c r="AB64">
-        <v>0.9309640701404629</v>
+        <v>0.9310910472816065</v>
       </c>
       <c r="AC64">
         <v>38.4</v>
@@ -12635,10 +12635,10 @@
         <v>696</v>
       </c>
       <c r="AI64">
-        <v>131.4102011494252</v>
+        <v>131.408764367816</v>
       </c>
       <c r="AJ64">
-        <v>55.70595976500876</v>
+        <v>55.70391687062953</v>
       </c>
       <c r="AK64">
         <v>56.2</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>34.95337643678161</v>
+        <v>34.952658045977</v>
       </c>
       <c r="AR64">
-        <v>23.16423953087394</v>
+        <v>23.16368058199045</v>
       </c>
       <c r="AS64">
         <v>1.44</v>
@@ -12683,46 +12683,46 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.007946604166666661</v>
+        <v>0.008000596695402295</v>
       </c>
       <c r="AZ64">
-        <v>0.01811597469694951</v>
+        <v>0.01820233822882122</v>
       </c>
       <c r="BA64">
-        <v>-0.0436</v>
+        <v>-0.0435</v>
       </c>
       <c r="BB64">
-        <v>-0.00194</v>
+        <v>-0.0018875</v>
       </c>
       <c r="BC64">
-        <v>-6.245E-05</v>
+        <v>-5.975E-05</v>
       </c>
       <c r="BD64">
-        <v>0.014425</v>
+        <v>0.0145</v>
       </c>
       <c r="BE64">
-        <v>0.0886</v>
+        <v>0.0901</v>
       </c>
       <c r="BF64">
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.2679518045977011</v>
+        <v>0.2690284698275861</v>
       </c>
       <c r="BH64">
-        <v>0.378437211824629</v>
+        <v>0.3790114416788282</v>
       </c>
       <c r="BI64">
         <v>-0.189</v>
       </c>
       <c r="BJ64">
-        <v>-0.04055</v>
+        <v>-0.03985</v>
       </c>
       <c r="BK64">
-        <v>-0.0009035</v>
+        <v>-0.0007835</v>
       </c>
       <c r="BL64">
-        <v>0.646</v>
+        <v>0.648</v>
       </c>
       <c r="BM64">
         <v>1.34</v>
@@ -12784,10 +12784,10 @@
         <v>696</v>
       </c>
       <c r="S65">
-        <v>5.146666666666665</v>
+        <v>5.146566091954021</v>
       </c>
       <c r="T65">
-        <v>1.749532832471138</v>
+        <v>1.749520424713264</v>
       </c>
       <c r="U65">
         <v>2.71</v>
@@ -12808,10 +12808,10 @@
         <v>696</v>
       </c>
       <c r="AA65">
-        <v>39.2617816091954</v>
+        <v>39.26149425287355</v>
       </c>
       <c r="AB65">
-        <v>0.9270230770214737</v>
+        <v>0.9267938437127752</v>
       </c>
       <c r="AC65">
         <v>38.4</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>131.2863505747127</v>
+        <v>131.2818965517242</v>
       </c>
       <c r="AJ65">
-        <v>55.66287863585072</v>
+        <v>55.65843484715781</v>
       </c>
       <c r="AK65">
         <v>56.2</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>34.92772988505745</v>
+        <v>34.92715517241377</v>
       </c>
       <c r="AR65">
-        <v>23.15853719281739</v>
+        <v>23.15777800772396</v>
       </c>
       <c r="AS65">
         <v>1.44</v>
@@ -12880,46 +12880,46 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.008140321839080459</v>
+        <v>0.008194208333333333</v>
       </c>
       <c r="AZ65">
-        <v>0.01822523641031251</v>
+        <v>0.01831279872632747</v>
       </c>
       <c r="BA65">
-        <v>-0.0431</v>
+        <v>-0.043</v>
       </c>
       <c r="BB65">
-        <v>-0.00177</v>
+        <v>-0.0017425</v>
       </c>
       <c r="BC65">
-        <v>7.25E-06</v>
+        <v>5.160000000000001E-05</v>
       </c>
       <c r="BD65">
-        <v>0.0146</v>
+        <v>0.014625</v>
       </c>
       <c r="BE65">
-        <v>0.0902</v>
+        <v>0.0917</v>
       </c>
       <c r="BF65">
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.2732270258620688</v>
+        <v>0.2742763663793102</v>
       </c>
       <c r="BH65">
-        <v>0.3798041889965068</v>
+        <v>0.3803550941421582</v>
       </c>
       <c r="BI65">
         <v>-0.157</v>
       </c>
       <c r="BJ65">
-        <v>-0.035675</v>
+        <v>-0.0353</v>
       </c>
       <c r="BK65">
-        <v>0.000322</v>
+        <v>0.0013625</v>
       </c>
       <c r="BL65">
-        <v>0.65325</v>
+        <v>0.655</v>
       </c>
       <c r="BM65">
         <v>1.33</v>
@@ -12981,10 +12981,10 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>5.142040229885063</v>
+        <v>5.141824712643682</v>
       </c>
       <c r="T66">
-        <v>1.751527802925889</v>
+        <v>1.751506559161023</v>
       </c>
       <c r="U66">
         <v>2.7</v>
@@ -13005,10 +13005,10 @@
         <v>696</v>
       </c>
       <c r="AA66">
-        <v>39.25790229885055</v>
+        <v>39.25761494252871</v>
       </c>
       <c r="AB66">
-        <v>0.9260238645062008</v>
+        <v>0.9259019641413756</v>
       </c>
       <c r="AC66">
         <v>38.4</v>
@@ -13029,10 +13029,10 @@
         <v>696</v>
       </c>
       <c r="AI66">
-        <v>131.2025862068966</v>
+        <v>131.2011494252874</v>
       </c>
       <c r="AJ66">
-        <v>55.65981921742375</v>
+        <v>55.65867406502701</v>
       </c>
       <c r="AK66">
         <v>56.1</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>34.91596264367817</v>
+        <v>34.91564655172415</v>
       </c>
       <c r="AR66">
-        <v>23.15911292131459</v>
+        <v>23.15911579023873</v>
       </c>
       <c r="AS66">
         <v>1.43</v>
@@ -13077,46 +13077,46 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.008298057327586211</v>
+        <v>0.00835039870689655</v>
       </c>
       <c r="AZ66">
-        <v>0.01833190005130313</v>
+        <v>0.01841605208372073</v>
       </c>
       <c r="BA66">
-        <v>-0.0425</v>
+        <v>-0.0424</v>
       </c>
       <c r="BB66">
-        <v>-0.0016425</v>
+        <v>-0.0016125</v>
       </c>
       <c r="BC66">
-        <v>8.860000000000001E-05</v>
+        <v>0.00013165</v>
       </c>
       <c r="BD66">
         <v>0.0148</v>
       </c>
       <c r="BE66">
-        <v>0.09180000000000001</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="BF66">
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.2770624209770114</v>
+        <v>0.2780672025862069</v>
       </c>
       <c r="BH66">
-        <v>0.3808553671785187</v>
+        <v>0.3813638069889811</v>
       </c>
       <c r="BI66">
         <v>-0.153</v>
       </c>
       <c r="BJ66">
-        <v>-0.034</v>
+        <v>-0.03345</v>
       </c>
       <c r="BK66">
-        <v>0.002135</v>
+        <v>0.0031355</v>
       </c>
       <c r="BL66">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="BM66">
         <v>1.29</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>39.25431034482752</v>
+        <v>39.25402298850568</v>
       </c>
       <c r="L67">
-        <v>0.9072585545711165</v>
+        <v>0.9074660234099284</v>
       </c>
       <c r="M67">
         <v>38.5</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>5.13298850574713</v>
+        <v>5.132887931034486</v>
       </c>
       <c r="T67">
-        <v>1.755991422566375</v>
+        <v>1.755976719031944</v>
       </c>
       <c r="U67">
         <v>2.68</v>
@@ -13196,7 +13196,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="Y67">
-        <v>8.94</v>
+        <v>8.93</v>
       </c>
       <c r="Z67">
         <v>696</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>131.1012931034483</v>
+        <v>131.0994252873563</v>
       </c>
       <c r="AJ67">
-        <v>55.64258925798359</v>
+        <v>55.64358547025682</v>
       </c>
       <c r="AK67">
         <v>56</v>
@@ -13250,10 +13250,10 @@
         <v>696</v>
       </c>
       <c r="AQ67">
-        <v>34.89367816091956</v>
+        <v>34.89349137931036</v>
       </c>
       <c r="AR67">
-        <v>23.15933432971578</v>
+        <v>23.15942941780299</v>
       </c>
       <c r="AS67">
         <v>1.43</v>
@@ -13274,46 +13274,46 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.008278010201149428</v>
+        <v>0.008329001867816094</v>
       </c>
       <c r="AZ67">
-        <v>0.01852913248896162</v>
+        <v>0.01861063508401579</v>
       </c>
       <c r="BA67">
-        <v>-0.0429</v>
+        <v>-0.0428</v>
       </c>
       <c r="BB67">
-        <v>-0.00182</v>
+        <v>-0.0017925</v>
       </c>
       <c r="BC67">
-        <v>2.83E-05</v>
+        <v>6.985E-05</v>
       </c>
       <c r="BD67">
-        <v>0.0148</v>
+        <v>0.014825</v>
       </c>
       <c r="BE67">
-        <v>0.09320000000000001</v>
+        <v>0.0946</v>
       </c>
       <c r="BF67">
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.2761106293103447</v>
+        <v>0.2771038965517238</v>
       </c>
       <c r="BH67">
-        <v>0.3835238516609263</v>
+        <v>0.3841030995739784</v>
       </c>
       <c r="BI67">
-        <v>-0.172</v>
+        <v>-0.171</v>
       </c>
       <c r="BJ67">
-        <v>-0.0367</v>
+        <v>-0.036225</v>
       </c>
       <c r="BK67">
-        <v>0.000892</v>
+        <v>0.0018575</v>
       </c>
       <c r="BL67">
-        <v>0.662</v>
+        <v>0.66325</v>
       </c>
       <c r="BM67">
         <v>1.31</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>5.124568965517231</v>
+        <v>5.124410919540219</v>
       </c>
       <c r="T68">
-        <v>1.759808062903026</v>
+        <v>1.75982412401039</v>
       </c>
       <c r="U68">
         <v>2.67</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>130.9925287356322</v>
+        <v>130.9875</v>
       </c>
       <c r="AJ68">
-        <v>55.66087709571165</v>
+        <v>55.66053225328894</v>
       </c>
       <c r="AK68">
         <v>55.9</v>
@@ -13447,10 +13447,10 @@
         <v>696</v>
       </c>
       <c r="AQ68">
-        <v>34.87540229885058</v>
+        <v>34.87511494252875</v>
       </c>
       <c r="AR68">
-        <v>23.15659748391734</v>
+        <v>23.15653317670304</v>
       </c>
       <c r="AS68">
         <v>1.43</v>
@@ -13471,46 +13471,46 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.008397496551724131</v>
+        <v>0.00844615574712643</v>
       </c>
       <c r="AZ68">
-        <v>0.01866821197068905</v>
+        <v>0.01874841498271934</v>
       </c>
       <c r="BA68">
-        <v>-0.0427</v>
+        <v>-0.0426</v>
       </c>
       <c r="BB68">
-        <v>-0.001775</v>
+        <v>-0.0017575</v>
       </c>
       <c r="BC68">
-        <v>8.850000000000001E-05</v>
+        <v>0.00012855</v>
       </c>
       <c r="BD68">
-        <v>0.0149</v>
+        <v>0.015</v>
       </c>
       <c r="BE68">
-        <v>0.09470000000000001</v>
+        <v>0.0961</v>
       </c>
       <c r="BF68">
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.2789613218390805</v>
+        <v>0.2799244798850574</v>
       </c>
       <c r="BH68">
-        <v>0.3849574635421126</v>
+        <v>0.3854781679545618</v>
       </c>
       <c r="BI68">
         <v>-0.159</v>
       </c>
       <c r="BJ68">
-        <v>-0.03525</v>
+        <v>-0.03472500000000001</v>
       </c>
       <c r="BK68">
-        <v>0.0022245</v>
+        <v>0.003165</v>
       </c>
       <c r="BL68">
-        <v>0.667</v>
+        <v>0.66825</v>
       </c>
       <c r="BM68">
         <v>1.32</v>
@@ -13548,10 +13548,10 @@
         <v>696</v>
       </c>
       <c r="K69">
-        <v>39.24367816091947</v>
+        <v>39.24353448275856</v>
       </c>
       <c r="L69">
-        <v>0.8988179158822206</v>
+        <v>0.8988008839698909</v>
       </c>
       <c r="M69">
         <v>38.5</v>
@@ -13572,10 +13572,10 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>5.121278735632169</v>
+        <v>5.121221264367802</v>
       </c>
       <c r="T69">
-        <v>1.760797220491633</v>
+        <v>1.760839753033684</v>
       </c>
       <c r="U69">
         <v>2.67</v>
@@ -13596,10 +13596,10 @@
         <v>696</v>
       </c>
       <c r="AA69">
-        <v>39.23778735632181</v>
+        <v>39.23735632183906</v>
       </c>
       <c r="AB69">
-        <v>0.9114903540405501</v>
+        <v>0.9113581734609465</v>
       </c>
       <c r="AC69">
         <v>38.4</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>130.9501436781609</v>
+        <v>130.95</v>
       </c>
       <c r="AJ69">
-        <v>55.67295456936805</v>
+        <v>55.67307371333688</v>
       </c>
       <c r="AK69">
         <v>55.9</v>
@@ -13644,10 +13644,10 @@
         <v>696</v>
       </c>
       <c r="AQ69">
-        <v>34.86459770114944</v>
+        <v>34.86385057471266</v>
       </c>
       <c r="AR69">
-        <v>23.15338056916029</v>
+        <v>23.15310735645769</v>
       </c>
       <c r="AS69">
         <v>1.43</v>
@@ -13668,46 +13668,46 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.00860521379310346</v>
+        <v>0.008652619540229892</v>
       </c>
       <c r="AZ69">
-        <v>0.01874804863013586</v>
+        <v>0.01882620796442453</v>
       </c>
       <c r="BA69">
         <v>-0.0417</v>
       </c>
       <c r="BB69">
-        <v>-0.001565</v>
+        <v>-0.0015325</v>
       </c>
       <c r="BC69">
-        <v>0.00020785</v>
+        <v>0.00024735</v>
       </c>
       <c r="BD69">
         <v>0.0151</v>
       </c>
       <c r="BE69">
-        <v>0.0964</v>
+        <v>0.0977</v>
       </c>
       <c r="BF69">
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.2840233908045983</v>
+        <v>0.2849396925287359</v>
       </c>
       <c r="BH69">
-        <v>0.3854229037787751</v>
+        <v>0.3859301545206405</v>
       </c>
       <c r="BI69">
         <v>-0.151</v>
       </c>
       <c r="BJ69">
-        <v>-0.032225</v>
+        <v>-0.031475</v>
       </c>
       <c r="BK69">
-        <v>0.004823</v>
+        <v>0.005723499999999999</v>
       </c>
       <c r="BL69">
-        <v>0.67425</v>
+        <v>0.676</v>
       </c>
       <c r="BM69">
         <v>1.32</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>5.122729885057458</v>
+        <v>5.122643678160907</v>
       </c>
       <c r="T70">
-        <v>1.759777133215344</v>
+        <v>1.759778327943479</v>
       </c>
       <c r="U70">
         <v>2.67</v>
@@ -13793,10 +13793,10 @@
         <v>696</v>
       </c>
       <c r="AA70">
-        <v>39.23936781609193</v>
+        <v>39.23922413793101</v>
       </c>
       <c r="AB70">
-        <v>0.9135442260809606</v>
+        <v>0.9136685331884968</v>
       </c>
       <c r="AC70">
         <v>38.4</v>
@@ -13817,10 +13817,10 @@
         <v>696</v>
       </c>
       <c r="AI70">
-        <v>130.9619252873564</v>
+        <v>130.9602011494253</v>
       </c>
       <c r="AJ70">
-        <v>55.66649717687125</v>
+        <v>55.66754821764464</v>
       </c>
       <c r="AK70">
         <v>55.9</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>34.86844827586208</v>
+        <v>34.86739942528737</v>
       </c>
       <c r="AR70">
-        <v>23.15347574399008</v>
+        <v>23.15284636829559</v>
       </c>
       <c r="AS70">
         <v>1.43</v>
@@ -13865,46 +13865,46 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.008781908237068963</v>
+        <v>0.008825426238505751</v>
       </c>
       <c r="AZ70">
-        <v>0.01882245234295693</v>
+        <v>0.01889702905635279</v>
       </c>
       <c r="BA70">
-        <v>-0.0406</v>
+        <v>-0.0405</v>
       </c>
       <c r="BB70">
-        <v>-0.00144</v>
+        <v>-0.00143</v>
       </c>
       <c r="BC70">
-        <v>0.0003685</v>
+        <v>0.0004065</v>
       </c>
       <c r="BD70">
-        <v>0.0152</v>
+        <v>0.015225</v>
       </c>
       <c r="BE70">
-        <v>0.09810000000000001</v>
+        <v>0.0993</v>
       </c>
       <c r="BF70">
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.2879367201436779</v>
+        <v>0.2888145682471264</v>
       </c>
       <c r="BH70">
-        <v>0.3856859510618332</v>
+        <v>0.3861750186897023</v>
       </c>
       <c r="BI70">
         <v>-0.146</v>
       </c>
       <c r="BJ70">
-        <v>-0.029325</v>
+        <v>-0.028575</v>
       </c>
       <c r="BK70">
-        <v>0.010165</v>
+        <v>0.01107</v>
       </c>
       <c r="BL70">
-        <v>0.68</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="BM70">
         <v>1.3</v>
@@ -13942,10 +13942,10 @@
         <v>696</v>
       </c>
       <c r="K71">
-        <v>39.23692528735628</v>
+        <v>39.23663793103444</v>
       </c>
       <c r="L71">
-        <v>0.8976396066767196</v>
+        <v>0.897715512097175</v>
       </c>
       <c r="M71">
         <v>38.5</v>
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>5.114051724137924</v>
+        <v>5.113951149425279</v>
       </c>
       <c r="T71">
-        <v>1.765738264144676</v>
+        <v>1.765681898699299</v>
       </c>
       <c r="U71">
         <v>2.65</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>39.2248563218391</v>
+        <v>39.22442528735635</v>
       </c>
       <c r="AB71">
-        <v>0.9067611629668588</v>
+        <v>0.9070188104265194</v>
       </c>
       <c r="AC71">
         <v>38.4</v>
@@ -14014,10 +14014,10 @@
         <v>696</v>
       </c>
       <c r="AI71">
-        <v>130.8665229885057</v>
+        <v>130.8633620689655</v>
       </c>
       <c r="AJ71">
-        <v>55.68010339114314</v>
+        <v>55.68069884687079</v>
       </c>
       <c r="AK71">
         <v>55.8</v>
@@ -14038,10 +14038,10 @@
         <v>696</v>
       </c>
       <c r="AQ71">
-        <v>34.84491379310354</v>
+        <v>34.84477011494262</v>
       </c>
       <c r="AR71">
-        <v>23.1518166540133</v>
+        <v>23.15192786736893</v>
       </c>
       <c r="AS71">
         <v>1.43</v>
@@ -14062,46 +14062,46 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.008584944252873568</v>
+        <v>0.008627118103448289</v>
       </c>
       <c r="AZ71">
-        <v>0.01907932418106529</v>
+        <v>0.01915162319493483</v>
       </c>
       <c r="BA71">
         <v>-0.0418</v>
       </c>
       <c r="BB71">
-        <v>-0.001865</v>
+        <v>-0.00186</v>
       </c>
       <c r="BC71">
-        <v>9.959999999999998E-05</v>
+        <v>0.0001361</v>
       </c>
       <c r="BD71">
         <v>0.0152</v>
       </c>
       <c r="BE71">
-        <v>0.0994</v>
+        <v>0.101</v>
       </c>
       <c r="BF71">
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.2821171623563221</v>
+        <v>0.2829735301724137</v>
       </c>
       <c r="BH71">
-        <v>0.3890256911953778</v>
+        <v>0.3894696261505171</v>
       </c>
       <c r="BI71">
         <v>-0.189</v>
       </c>
       <c r="BJ71">
-        <v>-0.03845</v>
+        <v>-0.037825</v>
       </c>
       <c r="BK71">
-        <v>0.0026335</v>
+        <v>0.0034835</v>
       </c>
       <c r="BL71">
-        <v>0.67725</v>
+        <v>0.679</v>
       </c>
       <c r="BM71">
         <v>1.28</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>5.090057471264372</v>
+        <v>5.090000000000004</v>
       </c>
       <c r="T72">
-        <v>1.778369230220334</v>
+        <v>1.77832570193378</v>
       </c>
       <c r="U72">
         <v>2.6</v>
@@ -14211,10 +14211,10 @@
         <v>696</v>
       </c>
       <c r="AI72">
-        <v>130.6165229885057</v>
+        <v>130.6162356321838</v>
       </c>
       <c r="AJ72">
-        <v>55.6992768250024</v>
+        <v>55.69953885007757</v>
       </c>
       <c r="AK72">
         <v>55.5</v>
@@ -14235,10 +14235,10 @@
         <v>696</v>
       </c>
       <c r="AQ72">
-        <v>34.78925287356321</v>
+        <v>34.78880747126436</v>
       </c>
       <c r="AR72">
-        <v>23.14503928425648</v>
+        <v>23.14500807344239</v>
       </c>
       <c r="AS72">
         <v>1.43</v>
@@ -14259,46 +14259,46 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.008369279166666667</v>
+        <v>0.008414162787356324</v>
       </c>
       <c r="AZ72">
-        <v>0.01939218234394735</v>
+        <v>0.01947121921224034</v>
       </c>
       <c r="BA72">
-        <v>-0.0444</v>
+        <v>-0.0443</v>
       </c>
       <c r="BB72">
-        <v>-0.0023325</v>
+        <v>-0.00232</v>
       </c>
       <c r="BC72">
-        <v>-5.15E-05</v>
+        <v>-1.6E-05</v>
       </c>
       <c r="BD72">
-        <v>0.0152</v>
+        <v>0.015225</v>
       </c>
       <c r="BE72">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="BF72">
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.2766742787356324</v>
+        <v>0.2774825215517242</v>
       </c>
       <c r="BH72">
-        <v>0.3931556727750582</v>
+        <v>0.3935974317698567</v>
       </c>
       <c r="BI72">
         <v>-0.258</v>
       </c>
       <c r="BJ72">
-        <v>-0.048775</v>
+        <v>-0.048525</v>
       </c>
       <c r="BK72">
-        <v>-0.000621</v>
+        <v>0.0002025</v>
       </c>
       <c r="BL72">
-        <v>0.676</v>
+        <v>0.677</v>
       </c>
       <c r="BM72">
         <v>1.26</v>
@@ -14336,10 +14336,10 @@
         <v>696</v>
       </c>
       <c r="K73">
-        <v>39.1895114942529</v>
+        <v>39.18936781609199</v>
       </c>
       <c r="L73">
-        <v>0.8685996618290658</v>
+        <v>0.8685399323905326</v>
       </c>
       <c r="M73">
         <v>38.4</v>
@@ -14351,7 +14351,7 @@
         <v>38.75</v>
       </c>
       <c r="P73">
-        <v>39.6</v>
+        <v>39.525</v>
       </c>
       <c r="Q73">
         <v>41</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>5.063793103448273</v>
+        <v>5.06369252873563</v>
       </c>
       <c r="T73">
-        <v>1.792025977059475</v>
+        <v>1.792000534028516</v>
       </c>
       <c r="U73">
         <v>2.55</v>
@@ -14384,10 +14384,10 @@
         <v>696</v>
       </c>
       <c r="AA73">
-        <v>39.16939655172425</v>
+        <v>39.16925287356334</v>
       </c>
       <c r="AB73">
-        <v>0.8841840904640952</v>
+        <v>0.8842685970847836</v>
       </c>
       <c r="AC73">
         <v>38.4</v>
@@ -14408,10 +14408,10 @@
         <v>696</v>
       </c>
       <c r="AI73">
-        <v>130.3313218390804</v>
+        <v>130.3297413793103</v>
       </c>
       <c r="AJ73">
-        <v>55.66444323401054</v>
+        <v>55.66515144505266</v>
       </c>
       <c r="AK73">
         <v>55.2</v>
@@ -14432,10 +14432,10 @@
         <v>696</v>
       </c>
       <c r="AQ73">
-        <v>34.72159482758619</v>
+        <v>34.72145114942527</v>
       </c>
       <c r="AR73">
-        <v>23.13956532953711</v>
+        <v>23.13942462223229</v>
       </c>
       <c r="AS73">
         <v>1.43</v>
@@ -14456,46 +14456,46 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.008328753864942529</v>
+        <v>0.008372327729885061</v>
       </c>
       <c r="AZ73">
-        <v>0.01965368334406455</v>
+        <v>0.01972468285080101</v>
       </c>
       <c r="BA73">
         <v>-0.0464</v>
       </c>
       <c r="BB73">
-        <v>-0.00244</v>
+        <v>-0.0024225</v>
       </c>
       <c r="BC73">
-        <v>-4.7655E-05</v>
+        <v>-1.295E-05</v>
       </c>
       <c r="BD73">
-        <v>0.0153</v>
+        <v>0.015325</v>
       </c>
       <c r="BE73">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="BF73">
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.2761552816091954</v>
+        <v>0.2769578002873564</v>
       </c>
       <c r="BH73">
-        <v>0.395433668684797</v>
+        <v>0.3958647845403584</v>
       </c>
       <c r="BI73">
         <v>-0.267</v>
       </c>
       <c r="BJ73">
-        <v>-0.0502</v>
+        <v>-0.049725</v>
       </c>
       <c r="BK73">
-        <v>-0.000517</v>
+        <v>0.0002795</v>
       </c>
       <c r="BL73">
-        <v>0.679</v>
+        <v>0.681</v>
       </c>
       <c r="BM73">
         <v>1.25</v>
@@ -14533,10 +14533,10 @@
         <v>696</v>
       </c>
       <c r="K74">
-        <v>39.1695402298851</v>
+        <v>39.16910919540234</v>
       </c>
       <c r="L74">
-        <v>0.8642160774916525</v>
+        <v>0.8644754284978134</v>
       </c>
       <c r="M74">
         <v>38.4</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>5.047672413793117</v>
+        <v>5.047528735632199</v>
       </c>
       <c r="T74">
-        <v>1.798872080387491</v>
+        <v>1.798821896408985</v>
       </c>
       <c r="U74">
         <v>2.53</v>
@@ -14605,10 +14605,10 @@
         <v>696</v>
       </c>
       <c r="AI74">
-        <v>130.1441091954023</v>
+        <v>130.1396551724138</v>
       </c>
       <c r="AJ74">
-        <v>55.63414090568157</v>
+        <v>55.63314479072153</v>
       </c>
       <c r="AK74">
         <v>55.1</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>34.68004310344823</v>
+        <v>34.67984195402295</v>
       </c>
       <c r="AR74">
-        <v>23.13526576800906</v>
+        <v>23.13519460008104</v>
       </c>
       <c r="AS74">
         <v>1.42</v>
@@ -14653,49 +14653,49 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.008605832040229888</v>
+        <v>0.008646254166666657</v>
       </c>
       <c r="AZ74">
-        <v>0.01972853136779995</v>
+        <v>0.01980091273439703</v>
       </c>
       <c r="BA74">
         <v>-0.046</v>
       </c>
       <c r="BB74">
-        <v>-0.002025</v>
+        <v>-0.002005</v>
       </c>
       <c r="BC74">
-        <v>0.000176</v>
+        <v>0.00021</v>
       </c>
       <c r="BD74">
         <v>0.0155</v>
       </c>
       <c r="BE74">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="BF74">
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.2835516566091952</v>
+        <v>0.2843646738505747</v>
       </c>
       <c r="BH74">
-        <v>0.3938948301387221</v>
+        <v>0.3943764648015394</v>
       </c>
       <c r="BI74">
         <v>-0.188</v>
       </c>
       <c r="BJ74">
-        <v>-0.0392</v>
+        <v>-0.0387</v>
       </c>
       <c r="BK74">
-        <v>0.004301500000000001</v>
+        <v>0.0050565</v>
       </c>
       <c r="BL74">
-        <v>0.6879999999999999</v>
+        <v>0.6892499999999999</v>
       </c>
       <c r="BM74">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="75" spans="1:65">
@@ -14730,10 +14730,10 @@
         <v>696</v>
       </c>
       <c r="K75">
-        <v>39.15732758620695</v>
+        <v>39.15689655172419</v>
       </c>
       <c r="L75">
-        <v>0.8620058833282869</v>
+        <v>0.862359901291218</v>
       </c>
       <c r="M75">
         <v>38.4</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>5.03716954022989</v>
+        <v>5.036997126436787</v>
       </c>
       <c r="T75">
-        <v>1.804052721395486</v>
+        <v>1.804028993687096</v>
       </c>
       <c r="U75">
         <v>2.51</v>
@@ -14802,10 +14802,10 @@
         <v>696</v>
       </c>
       <c r="AI75">
-        <v>129.9841954022988</v>
+        <v>129.9798850574713</v>
       </c>
       <c r="AJ75">
-        <v>55.63201430869046</v>
+        <v>55.62998257876219</v>
       </c>
       <c r="AK75">
         <v>55</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>34.65178160919538</v>
+        <v>34.65149425287354</v>
       </c>
       <c r="AR75">
-        <v>23.13225769106962</v>
+        <v>23.13215445760137</v>
       </c>
       <c r="AS75">
         <v>1.42</v>
@@ -14850,46 +14850,46 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.008684508908045983</v>
+        <v>0.008724476580459776</v>
       </c>
       <c r="AZ75">
-        <v>0.01986414951924046</v>
+        <v>0.01993516509223197</v>
       </c>
       <c r="BA75">
         <v>-0.0461</v>
       </c>
       <c r="BB75">
-        <v>-0.0019825</v>
+        <v>-0.00197</v>
       </c>
       <c r="BC75">
-        <v>0.00022725</v>
+        <v>0.00026025</v>
       </c>
       <c r="BD75">
-        <v>0.0156</v>
+        <v>0.015625</v>
       </c>
       <c r="BE75">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="BF75">
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.2853135071839082</v>
+        <v>0.2860975474137934</v>
       </c>
       <c r="BH75">
-        <v>0.3946469789309291</v>
+        <v>0.3950820440174116</v>
       </c>
       <c r="BI75">
         <v>-0.182</v>
       </c>
       <c r="BJ75">
-        <v>-0.0389</v>
+        <v>-0.038025</v>
       </c>
       <c r="BK75">
-        <v>0.00541</v>
+        <v>0.0061605</v>
       </c>
       <c r="BL75">
-        <v>0.6919999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="BM75">
         <v>1.21</v>
@@ -14927,10 +14927,10 @@
         <v>696</v>
       </c>
       <c r="K76">
-        <v>39.17672413793107</v>
+        <v>39.17528735632188</v>
       </c>
       <c r="L76">
-        <v>0.8719967419865879</v>
+        <v>0.8718746383130036</v>
       </c>
       <c r="M76">
         <v>38.4</v>
@@ -14951,10 +14951,10 @@
         <v>696</v>
       </c>
       <c r="S76">
-        <v>5.054568965517241</v>
+        <v>5.052959770114943</v>
       </c>
       <c r="T76">
-        <v>1.793873294487591</v>
+        <v>1.793870500075492</v>
       </c>
       <c r="U76">
         <v>2.55</v>
@@ -14969,16 +14969,16 @@
         <v>6.3675</v>
       </c>
       <c r="Y76">
-        <v>8.92</v>
+        <v>8.91</v>
       </c>
       <c r="Z76">
         <v>696</v>
       </c>
       <c r="AA76">
-        <v>39.15948275862082</v>
+        <v>39.15919540229898</v>
       </c>
       <c r="AB76">
-        <v>0.8834834698107966</v>
+        <v>0.8836493570548456</v>
       </c>
       <c r="AC76">
         <v>38.4</v>
@@ -14999,16 +14999,16 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>130.155172413793</v>
+        <v>130.144396551724</v>
       </c>
       <c r="AJ76">
-        <v>55.60686906198465</v>
+        <v>55.601611670479</v>
       </c>
       <c r="AK76">
         <v>55.1</v>
       </c>
       <c r="AL76">
-        <v>99.375</v>
+        <v>99.30000000000001</v>
       </c>
       <c r="AM76">
         <v>114</v>
@@ -15023,10 +15023,10 @@
         <v>696</v>
       </c>
       <c r="AQ76">
-        <v>34.68481321839083</v>
+        <v>34.68318965517244</v>
       </c>
       <c r="AR76">
-        <v>23.13245076783291</v>
+        <v>23.13168306289565</v>
       </c>
       <c r="AS76">
         <v>1.42</v>
@@ -15047,46 +15047,46 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.00938627915229886</v>
+        <v>0.009424054548850584</v>
       </c>
       <c r="AZ76">
-        <v>0.01966398427013998</v>
+        <v>0.01972753528681133</v>
       </c>
       <c r="BA76">
         <v>-0.0421</v>
       </c>
       <c r="BB76">
-        <v>-0.0010825</v>
+        <v>-0.0010625</v>
       </c>
       <c r="BC76">
-        <v>0.00162</v>
+        <v>0.00164</v>
       </c>
       <c r="BD76">
-        <v>0.015925</v>
+        <v>0.016</v>
       </c>
       <c r="BE76">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="BF76">
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.3026856210919541</v>
+        <v>0.3034194463649427</v>
       </c>
       <c r="BH76">
-        <v>0.3897672230256509</v>
+        <v>0.3901548606139518</v>
       </c>
       <c r="BI76">
         <v>-0.152</v>
       </c>
       <c r="BJ76">
-        <v>-0.0219</v>
+        <v>-0.021325</v>
       </c>
       <c r="BK76">
-        <v>0.03685</v>
+        <v>0.03785</v>
       </c>
       <c r="BL76">
-        <v>0.7062499999999999</v>
+        <v>0.708</v>
       </c>
       <c r="BM76">
         <v>1.2</v>
@@ -15124,10 +15124,10 @@
         <v>696</v>
       </c>
       <c r="K77">
-        <v>39.18965517241379</v>
+        <v>39.18951149425288</v>
       </c>
       <c r="L77">
-        <v>0.8736144361679923</v>
+        <v>0.8737362375553253</v>
       </c>
       <c r="M77">
         <v>38.4</v>
@@ -15148,10 +15148,10 @@
         <v>696</v>
       </c>
       <c r="S77">
-        <v>5.064712643678156</v>
+        <v>5.064597701149421</v>
       </c>
       <c r="T77">
-        <v>1.788135616237128</v>
+        <v>1.78811282189409</v>
       </c>
       <c r="U77">
         <v>2.57</v>
@@ -15196,10 +15196,10 @@
         <v>696</v>
       </c>
       <c r="AI77">
-        <v>130.3034482758622</v>
+        <v>130.3015804597703</v>
       </c>
       <c r="AJ77">
-        <v>55.61322227392877</v>
+        <v>55.60895389138548</v>
       </c>
       <c r="AK77">
         <v>55.3</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>34.71405172413787</v>
+        <v>34.71362068965512</v>
       </c>
       <c r="AR77">
-        <v>23.13395722614714</v>
+        <v>23.13392856297079</v>
       </c>
       <c r="AS77">
         <v>1.43</v>
@@ -15244,46 +15244,46 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.009337775847701143</v>
+        <v>0.009375590732758617</v>
       </c>
       <c r="AZ77">
-        <v>0.01977225266766479</v>
+        <v>0.01983772836443463</v>
       </c>
       <c r="BA77">
         <v>-0.0405</v>
       </c>
       <c r="BB77">
-        <v>-0.0013675</v>
+        <v>-0.001365</v>
       </c>
       <c r="BC77">
-        <v>0.0008885</v>
+        <v>0.0009185</v>
       </c>
       <c r="BD77">
-        <v>0.015925</v>
+        <v>0.016</v>
       </c>
       <c r="BE77">
-        <v>0.108</v>
+        <v>0.109</v>
       </c>
       <c r="BF77">
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.2998526195402298</v>
+        <v>0.3006320630747125</v>
       </c>
       <c r="BH77">
-        <v>0.3915638348282617</v>
+        <v>0.392009987963097</v>
       </c>
       <c r="BI77">
         <v>-0.148</v>
       </c>
       <c r="BJ77">
-        <v>-0.0255</v>
+        <v>-0.0249</v>
       </c>
       <c r="BK77">
-        <v>0.0233</v>
+        <v>0.0247</v>
       </c>
       <c r="BL77">
-        <v>0.706</v>
+        <v>0.707</v>
       </c>
       <c r="BM77">
         <v>1.18</v>
@@ -15321,10 +15321,10 @@
         <v>696</v>
       </c>
       <c r="K78">
-        <v>39.17068965517247</v>
+        <v>39.1701149425288</v>
       </c>
       <c r="L78">
-        <v>0.8637396265058254</v>
+        <v>0.8641529231212465</v>
       </c>
       <c r="M78">
         <v>38.4</v>
@@ -15345,10 +15345,10 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>5.049094827586211</v>
+        <v>5.048879310344831</v>
       </c>
       <c r="T78">
-        <v>1.799878145252445</v>
+        <v>1.799871428606433</v>
       </c>
       <c r="U78">
         <v>2.52</v>
@@ -15393,10 +15393,10 @@
         <v>696</v>
       </c>
       <c r="AI78">
-        <v>130.1334770114942</v>
+        <v>130.1304597701149</v>
       </c>
       <c r="AJ78">
-        <v>55.64231103178358</v>
+        <v>55.63974660081309</v>
       </c>
       <c r="AK78">
         <v>55.1</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>34.6808045977011</v>
+        <v>34.68037356321835</v>
       </c>
       <c r="AR78">
-        <v>23.13666289677864</v>
+        <v>23.13640724684592</v>
       </c>
       <c r="AS78">
         <v>1.42</v>
@@ -15441,46 +15441,46 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.008759819252873564</v>
+        <v>0.008799248994252879</v>
       </c>
       <c r="AZ78">
-        <v>0.02021880521299086</v>
+        <v>0.02028410280046201</v>
       </c>
       <c r="BA78">
         <v>-0.0442</v>
       </c>
       <c r="BB78">
-        <v>-0.0023925</v>
+        <v>-0.0023725</v>
       </c>
       <c r="BC78">
-        <v>0.00011135</v>
+        <v>0.00014135</v>
       </c>
       <c r="BD78">
         <v>0.0158</v>
       </c>
       <c r="BE78">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
       <c r="BF78">
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.2842332183908047</v>
+        <v>0.2850413074712646</v>
       </c>
       <c r="BH78">
-        <v>0.3992801424628661</v>
+        <v>0.3997982591749184</v>
       </c>
       <c r="BI78">
         <v>-0.268</v>
       </c>
       <c r="BJ78">
-        <v>-0.048275</v>
+        <v>-0.0479</v>
       </c>
       <c r="BK78">
-        <v>0.003125</v>
+        <v>0.003815</v>
       </c>
       <c r="BL78">
-        <v>0.6952499999999999</v>
+        <v>0.697</v>
       </c>
       <c r="BM78">
         <v>1.21</v>
@@ -15518,10 +15518,10 @@
         <v>696</v>
       </c>
       <c r="K79">
-        <v>39.15790229885063</v>
+        <v>39.15775862068971</v>
       </c>
       <c r="L79">
-        <v>0.8651498288805111</v>
+        <v>0.8648683548081739</v>
       </c>
       <c r="M79">
         <v>38.4</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>5.038534482758618</v>
+        <v>5.038390804597698</v>
       </c>
       <c r="T79">
-        <v>1.80181543349012</v>
+        <v>1.801743199749448</v>
       </c>
       <c r="U79">
         <v>2.52</v>
@@ -15590,10 +15590,10 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>129.9728448275861</v>
+        <v>129.971264367816</v>
       </c>
       <c r="AJ79">
-        <v>55.61256439950922</v>
+        <v>55.6116085041016</v>
       </c>
       <c r="AK79">
         <v>55.1</v>
@@ -15614,10 +15614,10 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>34.65043103448271</v>
+        <v>34.65012931034478</v>
       </c>
       <c r="AR79">
-        <v>23.1305557003758</v>
+        <v>23.13049875789561</v>
       </c>
       <c r="AS79">
         <v>1.42</v>
@@ -15638,46 +15638,46 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.009245187787356317</v>
+        <v>0.0092832334770115</v>
       </c>
       <c r="AZ79">
-        <v>0.02018423372160588</v>
+        <v>0.02024215329107437</v>
       </c>
       <c r="BA79">
         <v>-0.0424</v>
       </c>
       <c r="BB79">
-        <v>-0.0016425</v>
+        <v>-0.00164</v>
       </c>
       <c r="BC79">
-        <v>0.00045485</v>
+        <v>0.00048485</v>
       </c>
       <c r="BD79">
         <v>0.0161</v>
       </c>
       <c r="BE79">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="BF79">
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.2971113304597701</v>
+        <v>0.297811028735632</v>
       </c>
       <c r="BH79">
-        <v>0.3964940294467363</v>
+        <v>0.3969028658702773</v>
       </c>
       <c r="BI79">
         <v>-0.154</v>
       </c>
       <c r="BJ79">
-        <v>-0.030925</v>
+        <v>-0.0304</v>
       </c>
       <c r="BK79">
-        <v>0.0103575</v>
+        <v>0.011008</v>
       </c>
       <c r="BL79">
-        <v>0.708</v>
+        <v>0.709</v>
       </c>
       <c r="BM79">
         <v>1.21</v>
@@ -15739,10 +15739,10 @@
         <v>696</v>
       </c>
       <c r="S80">
-        <v>5.120775862068959</v>
+        <v>5.120704022988499</v>
       </c>
       <c r="T80">
-        <v>1.75992870237964</v>
+        <v>1.759955916317076</v>
       </c>
       <c r="U80">
         <v>2.64</v>
@@ -15763,10 +15763,10 @@
         <v>696</v>
       </c>
       <c r="AA80">
-        <v>39.21738505747125</v>
+        <v>39.21724137931034</v>
       </c>
       <c r="AB80">
-        <v>0.922430041257229</v>
+        <v>0.9225341259783516</v>
       </c>
       <c r="AC80">
         <v>38.4</v>
@@ -15787,10 +15787,10 @@
         <v>696</v>
       </c>
       <c r="AI80">
-        <v>130.7308908045977</v>
+        <v>130.730316091954</v>
       </c>
       <c r="AJ80">
-        <v>55.58365017419549</v>
+        <v>55.58410893360715</v>
       </c>
       <c r="AK80">
         <v>55.5</v>
@@ -15811,10 +15811,10 @@
         <v>696</v>
       </c>
       <c r="AQ80">
-        <v>34.81783045977014</v>
+        <v>34.81764367816094</v>
       </c>
       <c r="AR80">
-        <v>23.14147372311646</v>
+        <v>23.14163841832213</v>
       </c>
       <c r="AS80">
         <v>1.42</v>
@@ -15835,46 +15835,46 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.01133336178160919</v>
+        <v>0.01137098913793103</v>
       </c>
       <c r="AZ80">
-        <v>0.01939336115521977</v>
+        <v>0.01945540582116525</v>
       </c>
       <c r="BA80">
         <v>-0.0316</v>
       </c>
       <c r="BB80">
-        <v>0.00032125</v>
+        <v>0.0003545</v>
       </c>
       <c r="BC80">
-        <v>0.00546</v>
+        <v>0.005464999999999999</v>
       </c>
       <c r="BD80">
         <v>0.0166</v>
       </c>
       <c r="BE80">
-        <v>0.115</v>
+        <v>0.116</v>
       </c>
       <c r="BF80">
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.3500525668103447</v>
+        <v>0.3507895432471264</v>
       </c>
       <c r="BH80">
-        <v>0.3836785588853371</v>
+        <v>0.3841355035476495</v>
       </c>
       <c r="BI80">
         <v>-0.12</v>
       </c>
       <c r="BJ80">
-        <v>0.0071475</v>
+        <v>0.00735</v>
       </c>
       <c r="BK80">
-        <v>0.164</v>
+        <v>0.165</v>
       </c>
       <c r="BL80">
-        <v>0.74225</v>
+        <v>0.74325</v>
       </c>
       <c r="BM80">
         <v>1.24</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>5.12504310344827</v>
+        <v>5.125086206896546</v>
       </c>
       <c r="T81">
-        <v>1.757227868636301</v>
+        <v>1.757155154550102</v>
       </c>
       <c r="U81">
         <v>2.68</v>
@@ -15984,10 +15984,10 @@
         <v>696</v>
       </c>
       <c r="AI81">
-        <v>130.9857758620691</v>
+        <v>130.9843390804599</v>
       </c>
       <c r="AJ81">
-        <v>55.64700990216678</v>
+        <v>55.64564323015616</v>
       </c>
       <c r="AK81">
         <v>56</v>
@@ -16008,10 +16008,10 @@
         <v>696</v>
       </c>
       <c r="AQ81">
-        <v>34.87030172413794</v>
+        <v>34.86987068965518</v>
       </c>
       <c r="AR81">
-        <v>23.14971496745262</v>
+        <v>23.14912893581206</v>
       </c>
       <c r="AS81">
         <v>1.43</v>
@@ -16032,46 +16032,46 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.009819971408045976</v>
+        <v>0.009856426163793099</v>
       </c>
       <c r="AZ81">
-        <v>0.01996099178917357</v>
+        <v>0.02002695638454258</v>
       </c>
       <c r="BA81">
-        <v>-0.0326</v>
+        <v>-0.0325</v>
       </c>
       <c r="BB81">
-        <v>-0.0013425</v>
+        <v>-0.001335</v>
       </c>
       <c r="BC81">
-        <v>0.0006346</v>
+        <v>0.000673</v>
       </c>
       <c r="BD81">
         <v>0.0162</v>
       </c>
       <c r="BE81">
-        <v>0.115</v>
+        <v>0.116</v>
       </c>
       <c r="BF81">
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.3068845517241377</v>
+        <v>0.3075911752873565</v>
       </c>
       <c r="BH81">
-        <v>0.3942663358463133</v>
+        <v>0.3946813312759609</v>
       </c>
       <c r="BI81">
         <v>-0.13</v>
       </c>
       <c r="BJ81">
-        <v>-0.024175</v>
+        <v>-0.023725</v>
       </c>
       <c r="BK81">
-        <v>0.01579</v>
+        <v>0.01711</v>
       </c>
       <c r="BL81">
-        <v>0.7162499999999999</v>
+        <v>0.718</v>
       </c>
       <c r="BM81">
         <v>1.19</v>
@@ -16133,10 +16133,10 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>5.142873563218392</v>
+        <v>5.142859195402298</v>
       </c>
       <c r="T82">
-        <v>1.746966724911375</v>
+        <v>1.746893402998736</v>
       </c>
       <c r="U82">
         <v>2.71</v>
@@ -16181,10 +16181,10 @@
         <v>696</v>
       </c>
       <c r="AI82">
-        <v>131.1482758620691</v>
+        <v>131.1454022988507</v>
       </c>
       <c r="AJ82">
-        <v>55.58663518699037</v>
+        <v>55.58767817099611</v>
       </c>
       <c r="AK82">
         <v>56.1</v>
@@ -16205,10 +16205,10 @@
         <v>696</v>
       </c>
       <c r="AQ82">
-        <v>34.90617816091952</v>
+        <v>34.90557471264366</v>
       </c>
       <c r="AR82">
-        <v>23.15405184591503</v>
+        <v>23.15403750767111</v>
       </c>
       <c r="AS82">
         <v>1.43</v>
@@ -16229,46 +16229,46 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.01043533663793102</v>
+        <v>0.01047096480028736</v>
       </c>
       <c r="AZ82">
-        <v>0.01982197439654811</v>
+        <v>0.01988961657416191</v>
       </c>
       <c r="BA82">
         <v>-0.0292</v>
       </c>
       <c r="BB82">
-        <v>-0.00045875</v>
+        <v>-0.000433</v>
       </c>
       <c r="BC82">
-        <v>0.001845</v>
+        <v>0.00187</v>
       </c>
       <c r="BD82">
         <v>0.0164</v>
       </c>
       <c r="BE82">
-        <v>0.117</v>
+        <v>0.118</v>
       </c>
       <c r="BF82">
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.3220744540229887</v>
+        <v>0.3227731488505746</v>
       </c>
       <c r="BH82">
-        <v>0.3895191640051374</v>
+        <v>0.3899583885275293</v>
       </c>
       <c r="BI82">
         <v>-0.113</v>
       </c>
       <c r="BJ82">
-        <v>-0.008732499999999999</v>
+        <v>-0.0080775</v>
       </c>
       <c r="BK82">
-        <v>0.04485</v>
+        <v>0.04525</v>
       </c>
       <c r="BL82">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="BM82">
         <v>1.19</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>5.15979885057471</v>
+        <v>5.159741379310342</v>
       </c>
       <c r="T83">
-        <v>1.738333102103618</v>
+        <v>1.738323906802626</v>
       </c>
       <c r="U83">
         <v>2.74</v>
@@ -16354,10 +16354,10 @@
         <v>696</v>
       </c>
       <c r="AA83">
-        <v>39.27255747126434</v>
+        <v>39.27241379310342</v>
       </c>
       <c r="AB83">
-        <v>0.9388389030610833</v>
+        <v>0.9389496234811407</v>
       </c>
       <c r="AC83">
         <v>38.4</v>
@@ -16378,10 +16378,10 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>131.3952586206896</v>
+        <v>131.3922413793103</v>
       </c>
       <c r="AJ83">
-        <v>55.60029364801924</v>
+        <v>55.59541358475209</v>
       </c>
       <c r="AK83">
         <v>56.3</v>
@@ -16402,10 +16402,10 @@
         <v>696</v>
       </c>
       <c r="AQ83">
-        <v>34.95261494252871</v>
+        <v>34.95204022988503</v>
       </c>
       <c r="AR83">
-        <v>23.15362518473949</v>
+        <v>23.15306780806807</v>
       </c>
       <c r="AS83">
         <v>1.44</v>
@@ -16426,46 +16426,46 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.01049826678448276</v>
+        <v>0.01052916516235633</v>
       </c>
       <c r="AZ83">
-        <v>0.01990318497846006</v>
+        <v>0.01995380043936944</v>
       </c>
       <c r="BA83">
         <v>-0.0272</v>
       </c>
       <c r="BB83">
-        <v>-0.0005365</v>
+        <v>-0.000522</v>
       </c>
       <c r="BC83">
-        <v>0.001515</v>
+        <v>0.00154</v>
       </c>
       <c r="BD83">
         <v>0.0164</v>
       </c>
       <c r="BE83">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="BF83">
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.3222327770689651</v>
+        <v>0.3229674593247125</v>
       </c>
       <c r="BH83">
-        <v>0.3905002535940338</v>
+        <v>0.3909631148795983</v>
       </c>
       <c r="BI83">
-        <v>-0.107</v>
+        <v>-0.106</v>
       </c>
       <c r="BJ83">
-        <v>-0.011225</v>
+        <v>-0.01075</v>
       </c>
       <c r="BK83">
-        <v>0.0375</v>
+        <v>0.0387</v>
       </c>
       <c r="BL83">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="BM83">
         <v>1.19</v>
@@ -16503,10 +16503,10 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>39.28175287356314</v>
+        <v>39.27931034482751</v>
       </c>
       <c r="L84">
-        <v>0.9258853522997552</v>
+        <v>0.9259815472511697</v>
       </c>
       <c r="M84">
         <v>38.5</v>
@@ -16527,34 +16527,34 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>5.161422413793104</v>
+        <v>5.158850574712644</v>
       </c>
       <c r="T84">
-        <v>1.73988434735564</v>
+        <v>1.73991047502255</v>
       </c>
       <c r="U84">
         <v>2.74</v>
       </c>
       <c r="V84">
-        <v>3.56</v>
+        <v>3.5575</v>
       </c>
       <c r="W84">
-        <v>4.9</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="X84">
-        <v>6.4175</v>
+        <v>6.41</v>
       </c>
       <c r="Y84">
-        <v>8.949999999999999</v>
+        <v>8.94</v>
       </c>
       <c r="Z84">
         <v>696</v>
       </c>
       <c r="AA84">
-        <v>39.27126436781607</v>
+        <v>39.27112068965516</v>
       </c>
       <c r="AB84">
-        <v>0.9354299495102512</v>
+        <v>0.9355408744993933</v>
       </c>
       <c r="AC84">
         <v>38.4</v>
@@ -16575,16 +16575,16 @@
         <v>696</v>
       </c>
       <c r="AI84">
-        <v>131.4165229885057</v>
+        <v>131.407183908046</v>
       </c>
       <c r="AJ84">
-        <v>55.62326721880365</v>
+        <v>55.61436106753641</v>
       </c>
       <c r="AK84">
         <v>56.3</v>
       </c>
       <c r="AL84">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="AM84">
         <v>115</v>
@@ -16593,16 +16593,16 @@
         <v>140.75</v>
       </c>
       <c r="AO84">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AP84">
         <v>696</v>
       </c>
       <c r="AQ84">
-        <v>34.95547413793098</v>
+        <v>34.95323275862063</v>
       </c>
       <c r="AR84">
-        <v>23.15514219016614</v>
+        <v>23.1537751673083</v>
       </c>
       <c r="AS84">
         <v>1.44</v>
@@ -16614,7 +16614,7 @@
         <v>32.75</v>
       </c>
       <c r="AV84">
-        <v>47.575</v>
+        <v>47.5</v>
       </c>
       <c r="AW84">
         <v>136</v>
@@ -16623,46 +16623,46 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01021373247126437</v>
+        <v>0.01024666853448277</v>
       </c>
       <c r="AZ84">
-        <v>0.02013974002188179</v>
+        <v>0.02019839784041579</v>
       </c>
       <c r="BA84">
         <v>-0.028</v>
       </c>
       <c r="BB84">
-        <v>-0.001115</v>
+        <v>-0.001075</v>
       </c>
       <c r="BC84">
-        <v>0.0007565</v>
+        <v>0.000794</v>
       </c>
       <c r="BD84">
         <v>0.0163</v>
       </c>
       <c r="BE84">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="BF84">
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.3139113591954023</v>
+        <v>0.3145703663793102</v>
       </c>
       <c r="BH84">
-        <v>0.3948005392649335</v>
+        <v>0.3951511531374015</v>
       </c>
       <c r="BI84">
         <v>-0.114</v>
       </c>
       <c r="BJ84">
-        <v>-0.0208</v>
+        <v>-0.0202</v>
       </c>
       <c r="BK84">
-        <v>0.019435</v>
+        <v>0.020655</v>
       </c>
       <c r="BL84">
-        <v>0.7222499999999999</v>
+        <v>0.7232499999999999</v>
       </c>
       <c r="BM84">
         <v>1.21</v>
@@ -16724,10 +16724,10 @@
         <v>696</v>
       </c>
       <c r="S85">
-        <v>5.156767241379311</v>
+        <v>5.156709770114943</v>
       </c>
       <c r="T85">
-        <v>1.74055900484373</v>
+        <v>1.740562782291592</v>
       </c>
       <c r="U85">
         <v>2.74</v>
@@ -16796,10 +16796,10 @@
         <v>696</v>
       </c>
       <c r="AQ85">
-        <v>34.94716954022983</v>
+        <v>34.94701149425282</v>
       </c>
       <c r="AR85">
-        <v>23.15263915295089</v>
+        <v>23.15273083894396</v>
       </c>
       <c r="AS85">
         <v>1.44</v>
@@ -16820,46 +16820,46 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.01038084037356321</v>
+        <v>0.01041354425287356</v>
       </c>
       <c r="AZ85">
-        <v>0.02022566821000629</v>
+        <v>0.02028445654297811</v>
       </c>
       <c r="BA85">
-        <v>-0.0275</v>
+        <v>-0.0274</v>
       </c>
       <c r="BB85">
-        <v>-0.0009337499999999999</v>
+        <v>-0.0009207499999999999</v>
       </c>
       <c r="BC85">
-        <v>0.00087</v>
+        <v>0.000907</v>
       </c>
       <c r="BD85">
-        <v>0.0164</v>
+        <v>0.016425</v>
       </c>
       <c r="BE85">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="BF85">
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.3181247298850574</v>
+        <v>0.3188163132183912</v>
       </c>
       <c r="BH85">
-        <v>0.3957134567479357</v>
+        <v>0.3961487498616585</v>
       </c>
       <c r="BI85">
         <v>-0.107</v>
       </c>
       <c r="BJ85">
-        <v>-0.0173</v>
+        <v>-0.0164</v>
       </c>
       <c r="BK85">
-        <v>0.022685</v>
+        <v>0.0239</v>
       </c>
       <c r="BL85">
-        <v>0.72525</v>
+        <v>0.72625</v>
       </c>
       <c r="BM85">
         <v>1.25</v>
@@ -16921,10 +16921,10 @@
         <v>696</v>
       </c>
       <c r="S86">
-        <v>5.149583333333333</v>
+        <v>5.149511494252874</v>
       </c>
       <c r="T86">
-        <v>1.744861883246556</v>
+        <v>1.744822900830735</v>
       </c>
       <c r="U86">
         <v>2.72</v>
@@ -16945,10 +16945,10 @@
         <v>696</v>
       </c>
       <c r="AA86">
-        <v>39.26537356321836</v>
+        <v>39.26508620689652</v>
       </c>
       <c r="AB86">
-        <v>0.9332048152234348</v>
+        <v>0.9333482658490559</v>
       </c>
       <c r="AC86">
         <v>38.4</v>
@@ -16969,10 +16969,10 @@
         <v>696</v>
       </c>
       <c r="AI86">
-        <v>131.2959770114944</v>
+        <v>131.2916666666668</v>
       </c>
       <c r="AJ86">
-        <v>55.61280749874973</v>
+        <v>55.60875521960853</v>
       </c>
       <c r="AK86">
         <v>56.2</v>
@@ -16993,10 +16993,10 @@
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>34.93002873563218</v>
+        <v>34.92999999999999</v>
       </c>
       <c r="AR86">
-        <v>23.15591890707055</v>
+        <v>23.15595249233636</v>
       </c>
       <c r="AS86">
         <v>1.43</v>
@@ -17017,19 +17017,19 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.01028537025862069</v>
+        <v>0.01031523175287356</v>
       </c>
       <c r="AZ86">
-        <v>0.02043798253403354</v>
+        <v>0.02048141614016055</v>
       </c>
       <c r="BA86">
-        <v>-0.0285</v>
+        <v>-0.0284</v>
       </c>
       <c r="BB86">
-        <v>-0.001165</v>
+        <v>-0.0011575</v>
       </c>
       <c r="BC86">
-        <v>0.0007654999999999999</v>
+        <v>0.0008025</v>
       </c>
       <c r="BD86">
         <v>0.016425</v>
@@ -17041,22 +17041,22 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.3154861048850578</v>
+        <v>0.316154172413793</v>
       </c>
       <c r="BH86">
-        <v>0.3991907215577649</v>
+        <v>0.3996038520468431</v>
       </c>
       <c r="BI86">
         <v>-0.131</v>
       </c>
       <c r="BJ86">
-        <v>-0.02265</v>
+        <v>-0.0222</v>
       </c>
       <c r="BK86">
-        <v>0.02006</v>
+        <v>0.0212</v>
       </c>
       <c r="BL86">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="BM86">
         <v>1.25</v>
@@ -17094,10 +17094,10 @@
         <v>696</v>
       </c>
       <c r="K87">
-        <v>39.2636494252873</v>
+        <v>39.26350574712638</v>
       </c>
       <c r="L87">
-        <v>0.9178410157309066</v>
+        <v>0.9177961137647863</v>
       </c>
       <c r="M87">
         <v>38.5</v>
@@ -17118,10 +17118,10 @@
         <v>696</v>
       </c>
       <c r="S87">
-        <v>5.139051724137934</v>
+        <v>5.138936781609198</v>
       </c>
       <c r="T87">
-        <v>1.749738962705161</v>
+        <v>1.749720887595188</v>
       </c>
       <c r="U87">
         <v>2.7</v>
@@ -17142,10 +17142,10 @@
         <v>696</v>
       </c>
       <c r="AA87">
-        <v>39.25316091954022</v>
+        <v>39.25287356321838</v>
       </c>
       <c r="AB87">
-        <v>0.9263939882952898</v>
+        <v>0.9266123438576174</v>
       </c>
       <c r="AC87">
         <v>38.4</v>
@@ -17166,10 +17166,10 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>131.1471264367817</v>
+        <v>131.1468390804598</v>
       </c>
       <c r="AJ87">
-        <v>55.593168078951</v>
+        <v>55.59345871471496</v>
       </c>
       <c r="AK87">
         <v>56.1</v>
@@ -17190,10 +17190,10 @@
         <v>696</v>
       </c>
       <c r="AQ87">
-        <v>34.90568965517246</v>
+        <v>34.9051005747127</v>
       </c>
       <c r="AR87">
-        <v>23.15544698940374</v>
+        <v>23.15538977588854</v>
       </c>
       <c r="AS87">
         <v>1.43</v>
@@ -17214,46 +17214,46 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01031545515804598</v>
+        <v>0.01034850215517242</v>
       </c>
       <c r="AZ87">
-        <v>0.02059390059396147</v>
+        <v>0.02065374122681226</v>
       </c>
       <c r="BA87">
         <v>-0.0291</v>
       </c>
       <c r="BB87">
-        <v>-0.0012025</v>
+        <v>-0.001185</v>
       </c>
       <c r="BC87">
-        <v>0.0007865</v>
+        <v>0.0008234999999999999</v>
       </c>
       <c r="BD87">
-        <v>0.016425</v>
+        <v>0.01645</v>
       </c>
       <c r="BE87">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="BF87">
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.3163970817528734</v>
+        <v>0.3170420014367812</v>
       </c>
       <c r="BH87">
-        <v>0.4011905543805129</v>
+        <v>0.4015676251822521</v>
       </c>
       <c r="BI87">
         <v>-0.134</v>
       </c>
       <c r="BJ87">
-        <v>-0.023225</v>
+        <v>-0.02295</v>
       </c>
       <c r="BK87">
-        <v>0.02065</v>
+        <v>0.02178</v>
       </c>
       <c r="BL87">
-        <v>0.72925</v>
+        <v>0.73025</v>
       </c>
       <c r="BM87">
         <v>1.25</v>
@@ -17315,10 +17315,10 @@
         <v>696</v>
       </c>
       <c r="S88">
-        <v>5.138649425287357</v>
+        <v>5.138606321839082</v>
       </c>
       <c r="T88">
-        <v>1.748921941510275</v>
+        <v>1.748914791221341</v>
       </c>
       <c r="U88">
         <v>2.71</v>
@@ -17387,10 +17387,10 @@
         <v>696</v>
       </c>
       <c r="AQ88">
-        <v>34.9023563218391</v>
+        <v>34.90191091954024</v>
       </c>
       <c r="AR88">
-        <v>23.15480553741985</v>
+        <v>23.15452162310703</v>
       </c>
       <c r="AS88">
         <v>1.43</v>
@@ -17411,49 +17411,49 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01060337694540231</v>
+        <v>0.01063595491091955</v>
       </c>
       <c r="AZ88">
-        <v>0.02063145263432042</v>
+        <v>0.02069179088240897</v>
       </c>
       <c r="BA88">
         <v>-0.0279</v>
       </c>
       <c r="BB88">
-        <v>-0.00090325</v>
+        <v>-0.000891</v>
       </c>
       <c r="BC88">
-        <v>0.00101</v>
+        <v>0.0010465</v>
       </c>
       <c r="BD88">
-        <v>0.01655</v>
+        <v>0.016575</v>
       </c>
       <c r="BE88">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="BF88">
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.3238653026005743</v>
+        <v>0.3245463127586206</v>
       </c>
       <c r="BH88">
-        <v>0.4009109243324279</v>
+        <v>0.4013782880794843</v>
       </c>
       <c r="BI88">
         <v>-0.108</v>
       </c>
       <c r="BJ88">
-        <v>-0.01435</v>
+        <v>-0.014</v>
       </c>
       <c r="BK88">
-        <v>0.02745</v>
+        <v>0.02855</v>
       </c>
       <c r="BL88">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="BM88">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="89" spans="1:65">
@@ -17512,10 +17512,10 @@
         <v>696</v>
       </c>
       <c r="S89">
-        <v>5.13867816091954</v>
+        <v>5.138649425287357</v>
       </c>
       <c r="T89">
-        <v>1.748719401502549</v>
+        <v>1.748722094756715</v>
       </c>
       <c r="U89">
         <v>2.71</v>
@@ -17584,10 +17584,10 @@
         <v>696</v>
       </c>
       <c r="AQ89">
-        <v>34.90442528735633</v>
+        <v>34.90410919540231</v>
       </c>
       <c r="AR89">
-        <v>23.15540747852578</v>
+        <v>23.15493036199059</v>
       </c>
       <c r="AS89">
         <v>1.43</v>
@@ -17608,19 +17608,19 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.01065168146551725</v>
+        <v>0.01068162313218391</v>
       </c>
       <c r="AZ89">
-        <v>0.02076222674983479</v>
+        <v>0.02081436294075819</v>
       </c>
       <c r="BA89">
         <v>-0.0276</v>
       </c>
       <c r="BB89">
-        <v>-0.0009332499999999999</v>
+        <v>-0.0009209999999999999</v>
       </c>
       <c r="BC89">
-        <v>0.0010175</v>
+        <v>0.001049</v>
       </c>
       <c r="BD89">
         <v>0.016575</v>
@@ -17632,22 +17632,22 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.3248702758620688</v>
+        <v>0.3255080359195401</v>
       </c>
       <c r="BH89">
-        <v>0.4032558399909719</v>
+        <v>0.4036452081948476</v>
       </c>
       <c r="BI89">
-        <v>-0.108</v>
+        <v>-0.107</v>
       </c>
       <c r="BJ89">
-        <v>-0.014825</v>
+        <v>-0.014475</v>
       </c>
       <c r="BK89">
-        <v>0.02715</v>
+        <v>0.02825</v>
       </c>
       <c r="BL89">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="BM89">
         <v>1.29</v>
@@ -17685,10 +17685,10 @@
         <v>696</v>
       </c>
       <c r="K90">
-        <v>39.25675287356314</v>
+        <v>39.25660919540223</v>
       </c>
       <c r="L90">
-        <v>0.9138646386033183</v>
+        <v>0.9139601534858756</v>
       </c>
       <c r="M90">
         <v>38.5</v>
@@ -17709,10 +17709,10 @@
         <v>696</v>
       </c>
       <c r="S90">
-        <v>5.134037356321831</v>
+        <v>5.133951149425278</v>
       </c>
       <c r="T90">
-        <v>1.751385455697812</v>
+        <v>1.751312779684557</v>
       </c>
       <c r="U90">
         <v>2.7</v>
@@ -17733,10 +17733,10 @@
         <v>696</v>
       </c>
       <c r="AA90">
-        <v>39.24468390804596</v>
+        <v>39.24439655172413</v>
       </c>
       <c r="AB90">
-        <v>0.921931293543103</v>
+        <v>0.9221792663875044</v>
       </c>
       <c r="AC90">
         <v>38.4</v>
@@ -17757,10 +17757,10 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>131.0784482758621</v>
+        <v>131.0752873563218</v>
       </c>
       <c r="AJ90">
-        <v>55.61066479059567</v>
+        <v>55.61164769748819</v>
       </c>
       <c r="AK90">
         <v>56.1</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>34.88844827586209</v>
+        <v>34.88801724137933</v>
       </c>
       <c r="AR90">
-        <v>23.15103337576244</v>
+        <v>23.15088616989641</v>
       </c>
       <c r="AS90">
         <v>1.43</v>
@@ -17805,46 +17805,46 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.01061397916666666</v>
+        <v>0.01064367341954022</v>
       </c>
       <c r="AZ90">
-        <v>0.02094388050025775</v>
+        <v>0.02099247897330928</v>
       </c>
       <c r="BA90">
         <v>-0.0281</v>
       </c>
       <c r="BB90">
-        <v>-0.001115</v>
+        <v>-0.0010975</v>
       </c>
       <c r="BC90">
-        <v>0.000955</v>
+        <v>0.0009865</v>
       </c>
       <c r="BD90">
         <v>0.01665</v>
       </c>
       <c r="BE90">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="BF90">
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.3235862471264366</v>
+        <v>0.3241979942528738</v>
       </c>
       <c r="BH90">
-        <v>0.4058836633380644</v>
+        <v>0.406228861736468</v>
       </c>
       <c r="BI90">
         <v>-0.116</v>
       </c>
       <c r="BJ90">
-        <v>-0.0199</v>
+        <v>-0.01955</v>
       </c>
       <c r="BK90">
-        <v>0.02565</v>
+        <v>0.0267</v>
       </c>
       <c r="BL90">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="BM90">
         <v>1.29</v>
@@ -17882,10 +17882,10 @@
         <v>696</v>
       </c>
       <c r="K91">
-        <v>39.25244252873558</v>
+        <v>39.25229885057466</v>
       </c>
       <c r="L91">
-        <v>0.9118688594508478</v>
+        <v>0.9119796806387521</v>
       </c>
       <c r="M91">
         <v>38.5</v>
@@ -17906,10 +17906,10 @@
         <v>696</v>
       </c>
       <c r="S91">
-        <v>5.129022988505741</v>
+        <v>5.128979885057467</v>
       </c>
       <c r="T91">
-        <v>1.753689691274862</v>
+        <v>1.753659596230386</v>
       </c>
       <c r="U91">
         <v>2.69</v>
@@ -17954,10 +17954,10 @@
         <v>696</v>
       </c>
       <c r="AI91">
-        <v>131.0024425287356</v>
+        <v>131.0022988505747</v>
       </c>
       <c r="AJ91">
-        <v>55.63306746409294</v>
+        <v>55.63320674335976</v>
       </c>
       <c r="AK91">
         <v>56</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>34.87458333333334</v>
+        <v>34.87441091954024</v>
       </c>
       <c r="AR91">
-        <v>23.14566006149433</v>
+        <v>23.14577544182878</v>
       </c>
       <c r="AS91">
         <v>1.43</v>
@@ -18002,49 +18002,49 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.01072617140804596</v>
+        <v>0.01075780344827585</v>
       </c>
       <c r="AZ91">
-        <v>0.02105287048840025</v>
+        <v>0.02111240577742195</v>
       </c>
       <c r="BA91">
         <v>-0.028</v>
       </c>
       <c r="BB91">
-        <v>-0.0010675</v>
+        <v>-0.00105</v>
       </c>
       <c r="BC91">
-        <v>0.001031</v>
+        <v>0.001062</v>
       </c>
       <c r="BD91">
-        <v>0.016675</v>
+        <v>0.0167</v>
       </c>
       <c r="BE91">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="BF91">
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.3264663678160919</v>
+        <v>0.3270804525862068</v>
       </c>
       <c r="BH91">
-        <v>0.4071268403516302</v>
+        <v>0.4075140751779981</v>
       </c>
       <c r="BI91">
-        <v>-0.11</v>
+        <v>-0.109</v>
       </c>
       <c r="BJ91">
-        <v>-0.016975</v>
+        <v>-0.016525</v>
       </c>
       <c r="BK91">
-        <v>0.0278</v>
+        <v>0.02885</v>
       </c>
       <c r="BL91">
-        <v>0.74225</v>
+        <v>0.743</v>
       </c>
       <c r="BM91">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="92" spans="1:65">
@@ -18079,10 +18079,10 @@
         <v>696</v>
       </c>
       <c r="K92">
-        <v>39.26465517241374</v>
+        <v>39.2650862068965</v>
       </c>
       <c r="L92">
-        <v>0.9206429699102414</v>
+        <v>0.9210422582479818</v>
       </c>
       <c r="M92">
         <v>38.5</v>
@@ -18103,10 +18103,10 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>5.14147988505747</v>
+        <v>5.142054597701149</v>
       </c>
       <c r="T92">
-        <v>1.746363034982855</v>
+        <v>1.746347622084069</v>
       </c>
       <c r="U92">
         <v>2.71</v>
@@ -18115,7 +18115,7 @@
         <v>3.535</v>
       </c>
       <c r="W92">
-        <v>4.87</v>
+        <v>4.875</v>
       </c>
       <c r="X92">
         <v>6.399999999999999</v>
@@ -18127,10 +18127,10 @@
         <v>696</v>
       </c>
       <c r="AA92">
-        <v>39.25244252873563</v>
+        <v>39.25215517241379</v>
       </c>
       <c r="AB92">
-        <v>0.9323875500321136</v>
+        <v>0.932527135980563</v>
       </c>
       <c r="AC92">
         <v>38.4</v>
@@ -18151,10 +18151,10 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>131.1291666666667</v>
+        <v>131.1311781609196</v>
       </c>
       <c r="AJ92">
-        <v>55.58269926365628</v>
+        <v>55.58160263705488</v>
       </c>
       <c r="AK92">
         <v>56.1</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>34.90277298850575</v>
+        <v>34.90280172413793</v>
       </c>
       <c r="AR92">
-        <v>23.15155777185414</v>
+        <v>23.15138536609123</v>
       </c>
       <c r="AS92">
         <v>1.43</v>
@@ -18199,19 +18199,19 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.01118326658477011</v>
+        <v>0.01121365434425285</v>
       </c>
       <c r="AZ92">
-        <v>0.02100860884553582</v>
+        <v>0.02106816285131996</v>
       </c>
       <c r="BA92">
         <v>-0.0256</v>
       </c>
       <c r="BB92">
-        <v>-0.000403</v>
+        <v>-0.00039125</v>
       </c>
       <c r="BC92">
-        <v>0.00173</v>
+        <v>0.001755</v>
       </c>
       <c r="BD92">
         <v>0.016875</v>
@@ -18223,22 +18223,22 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.3382664358477012</v>
+        <v>0.3388793705172409</v>
       </c>
       <c r="BH92">
-        <v>0.4060882928581671</v>
+        <v>0.4064668506250936</v>
       </c>
       <c r="BI92">
         <v>-0.101</v>
       </c>
       <c r="BJ92">
-        <v>-0.008215</v>
+        <v>-0.0075325</v>
       </c>
       <c r="BK92">
-        <v>0.04795</v>
+        <v>0.0489</v>
       </c>
       <c r="BL92">
-        <v>0.75</v>
+        <v>0.75025</v>
       </c>
       <c r="BM92">
         <v>1.33</v>
@@ -18300,10 +18300,10 @@
         <v>696</v>
       </c>
       <c r="S93">
-        <v>5.164698275862068</v>
+        <v>5.164597701149424</v>
       </c>
       <c r="T93">
-        <v>1.733673496862554</v>
+        <v>1.73367148454949</v>
       </c>
       <c r="U93">
         <v>2.76</v>
@@ -18348,10 +18348,10 @@
         <v>696</v>
       </c>
       <c r="AI93">
-        <v>131.4063218390804</v>
+        <v>131.4044540229884</v>
       </c>
       <c r="AJ93">
-        <v>55.55852513676468</v>
+        <v>55.55780574045637</v>
       </c>
       <c r="AK93">
         <v>56.3</v>
@@ -18372,10 +18372,10 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>34.95826149425289</v>
+        <v>34.95768678160921</v>
       </c>
       <c r="AR93">
-        <v>23.15104284353156</v>
+        <v>23.15124316551807</v>
       </c>
       <c r="AS93">
         <v>1.43</v>
@@ -18396,16 +18396,16 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01156650262931035</v>
+        <v>0.01160041023275864</v>
       </c>
       <c r="AZ93">
-        <v>0.02098225816311552</v>
+        <v>0.02105168999190457</v>
       </c>
       <c r="BA93">
         <v>-0.0226</v>
       </c>
       <c r="BB93">
-        <v>-3.885E-05</v>
+        <v>-2.7625E-05</v>
       </c>
       <c r="BC93">
         <v>0.002335</v>
@@ -18414,28 +18414,28 @@
         <v>0.017</v>
       </c>
       <c r="BE93">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="BF93">
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.3474658234195407</v>
+        <v>0.3480561863218393</v>
       </c>
       <c r="BH93">
-        <v>0.4056204079074925</v>
+        <v>0.4059914539333229</v>
       </c>
       <c r="BI93">
-        <v>-0.0911</v>
+        <v>-0.091</v>
       </c>
       <c r="BJ93">
-        <v>-0.00026375</v>
+        <v>-0.00018125</v>
       </c>
       <c r="BK93">
-        <v>0.0567</v>
+        <v>0.05715000000000001</v>
       </c>
       <c r="BL93">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="BM93">
         <v>1.35</v>
@@ -18497,10 +18497,10 @@
         <v>696</v>
       </c>
       <c r="S94">
-        <v>5.175991379310343</v>
+        <v>5.175905172413792</v>
       </c>
       <c r="T94">
-        <v>1.728872513180786</v>
+        <v>1.728869564441142</v>
       </c>
       <c r="U94">
         <v>2.78</v>
@@ -18521,10 +18521,10 @@
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>39.28577586206895</v>
+        <v>39.28563218390804</v>
       </c>
       <c r="AB94">
-        <v>0.9449671160465482</v>
+        <v>0.9450182304503826</v>
       </c>
       <c r="AC94">
         <v>38.4</v>
@@ -18545,10 +18545,10 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>131.5787356321839</v>
+        <v>131.578591954023</v>
       </c>
       <c r="AJ94">
-        <v>55.63855121863273</v>
+        <v>55.63867826838992</v>
       </c>
       <c r="AK94">
         <v>56.5</v>
@@ -18569,10 +18569,10 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>34.99086206896555</v>
+        <v>34.99014367816096</v>
       </c>
       <c r="AR94">
-        <v>23.15508998171944</v>
+        <v>23.1543517666706</v>
       </c>
       <c r="AS94">
         <v>1.44</v>
@@ -18593,19 +18593,19 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01139581263403737</v>
+        <v>0.01142606552298852</v>
       </c>
       <c r="AZ94">
-        <v>0.02118398129874656</v>
+        <v>0.02122721047097462</v>
       </c>
       <c r="BA94">
         <v>-0.0217</v>
       </c>
       <c r="BB94">
-        <v>-0.0005417499999999999</v>
+        <v>-0.00053025</v>
       </c>
       <c r="BC94">
-        <v>0.001391</v>
+        <v>0.0014215</v>
       </c>
       <c r="BD94">
         <v>0.016925</v>
@@ -18617,22 +18617,22 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.3418656717400865</v>
+        <v>0.3424295177011498</v>
       </c>
       <c r="BH94">
-        <v>0.409602434891266</v>
+        <v>0.4099234559214149</v>
       </c>
       <c r="BI94">
-        <v>-0.08840000000000001</v>
+        <v>-0.0883</v>
       </c>
       <c r="BJ94">
-        <v>-0.007129999999999999</v>
+        <v>-0.006862500000000001</v>
       </c>
       <c r="BK94">
-        <v>0.04099999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="BL94">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="BM94">
         <v>1.37</v>
@@ -18670,10 +18670,10 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>39.29425287356316</v>
+        <v>39.29051724137926</v>
       </c>
       <c r="L95">
-        <v>0.9342230346169981</v>
+        <v>0.9338536340210118</v>
       </c>
       <c r="M95">
         <v>38.5</v>
@@ -18694,34 +18694,34 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>5.17272988505747</v>
+        <v>5.169583333333333</v>
       </c>
       <c r="T95">
-        <v>1.732877929428337</v>
+        <v>1.732870525398181</v>
       </c>
       <c r="U95">
         <v>2.76</v>
       </c>
       <c r="V95">
-        <v>3.5825</v>
+        <v>3.5775</v>
       </c>
       <c r="W95">
-        <v>4.91</v>
+        <v>4.9</v>
       </c>
       <c r="X95">
-        <v>6.425</v>
+        <v>6.41</v>
       </c>
       <c r="Y95">
-        <v>8.960000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="Z95">
         <v>696</v>
       </c>
       <c r="AA95">
-        <v>39.2808908045977</v>
+        <v>39.28060344827586</v>
       </c>
       <c r="AB95">
-        <v>0.9414177642068607</v>
+        <v>0.9415494245016874</v>
       </c>
       <c r="AC95">
         <v>38.4</v>
@@ -18742,10 +18742,10 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>131.5262931034483</v>
+        <v>131.5189655172414</v>
       </c>
       <c r="AJ95">
-        <v>55.63101108202986</v>
+        <v>55.62542286193059</v>
       </c>
       <c r="AK95">
         <v>56.5</v>
@@ -18766,10 +18766,10 @@
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>34.98258620689656</v>
+        <v>34.97946839080461</v>
       </c>
       <c r="AR95">
-        <v>23.15621153346303</v>
+        <v>23.15481641098321</v>
       </c>
       <c r="AS95">
         <v>1.44</v>
@@ -18790,22 +18790,22 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.01119819199137931</v>
+        <v>0.01122458037356322</v>
       </c>
       <c r="AZ95">
-        <v>0.02141683288589577</v>
+        <v>0.02146437053619492</v>
       </c>
       <c r="BA95">
-        <v>-0.023</v>
+        <v>-0.0229</v>
       </c>
       <c r="BB95">
-        <v>-0.0009295</v>
+        <v>-0.0009087500000000001</v>
       </c>
       <c r="BC95">
-        <v>0.0011555</v>
+        <v>0.0011855</v>
       </c>
       <c r="BD95">
-        <v>0.0169</v>
+        <v>0.016925</v>
       </c>
       <c r="BE95">
         <v>0.135</v>
@@ -18814,22 +18814,22 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.3362651912356322</v>
+        <v>0.3368437035919541</v>
       </c>
       <c r="BH95">
-        <v>0.4141534216247192</v>
+        <v>0.4145033815682307</v>
       </c>
       <c r="BI95">
         <v>-0.116</v>
       </c>
       <c r="BJ95">
-        <v>-0.017325</v>
+        <v>-0.017175</v>
       </c>
       <c r="BK95">
-        <v>0.03265</v>
+        <v>0.0336</v>
       </c>
       <c r="BL95">
-        <v>0.75625</v>
+        <v>0.75725</v>
       </c>
       <c r="BM95">
         <v>1.4</v>
@@ -18867,10 +18867,10 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>39.29267241379305</v>
+        <v>39.29425287356317</v>
       </c>
       <c r="L96">
-        <v>0.9358969300921409</v>
+        <v>0.9356850385458998</v>
       </c>
       <c r="M96">
         <v>38.5</v>
@@ -18891,34 +18891,34 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>5.172816091954018</v>
+        <v>5.174209770114937</v>
       </c>
       <c r="T96">
-        <v>1.730589902528466</v>
+        <v>1.730583203304332</v>
       </c>
       <c r="U96">
         <v>2.77</v>
       </c>
       <c r="V96">
-        <v>3.585</v>
+        <v>3.5875</v>
       </c>
       <c r="W96">
-        <v>4.904999999999999</v>
+        <v>4.91</v>
       </c>
       <c r="X96">
-        <v>6.412500000000001</v>
+        <v>6.4175</v>
       </c>
       <c r="Y96">
-        <v>8.949999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="Z96">
         <v>696</v>
       </c>
       <c r="AA96">
-        <v>39.28146551724137</v>
+        <v>39.28132183908046</v>
       </c>
       <c r="AB96">
-        <v>0.9430632051358859</v>
+        <v>0.9431747886166596</v>
       </c>
       <c r="AC96">
         <v>38.4</v>
@@ -18939,10 +18939,10 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>131.5307471264367</v>
+        <v>131.5287356321838</v>
       </c>
       <c r="AJ96">
-        <v>55.61020378927012</v>
+        <v>55.60702876341698</v>
       </c>
       <c r="AK96">
         <v>56.5</v>
@@ -18963,10 +18963,10 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>34.98156609195406</v>
+        <v>34.98272988505751</v>
       </c>
       <c r="AR96">
-        <v>23.15296078438771</v>
+        <v>23.15354517389808</v>
       </c>
       <c r="AS96">
         <v>1.44</v>
@@ -18987,46 +18987,46 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.01154205834913794</v>
+        <v>0.01156933930000001</v>
       </c>
       <c r="AZ96">
-        <v>0.02145079313350389</v>
+        <v>0.02150218165341248</v>
       </c>
       <c r="BA96">
         <v>-0.0215</v>
       </c>
       <c r="BB96">
-        <v>-0.0005565</v>
+        <v>-0.000547</v>
       </c>
       <c r="BC96">
-        <v>0.001434</v>
+        <v>0.0014645</v>
       </c>
       <c r="BD96">
-        <v>0.017025</v>
+        <v>0.01705</v>
       </c>
       <c r="BE96">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="BF96">
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.345263148706897</v>
+        <v>0.3459554351149426</v>
       </c>
       <c r="BH96">
-        <v>0.4138232410093303</v>
+        <v>0.4143650653189145</v>
       </c>
       <c r="BI96">
-        <v>-0.08749999999999999</v>
+        <v>-0.08740000000000001</v>
       </c>
       <c r="BJ96">
-        <v>-0.006977499999999999</v>
+        <v>-0.0065575</v>
       </c>
       <c r="BK96">
-        <v>0.0421</v>
+        <v>0.04305</v>
       </c>
       <c r="BL96">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="BM96">
         <v>1.41</v>
@@ -19088,10 +19088,10 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>5.170732758620687</v>
+        <v>5.170617816091951</v>
       </c>
       <c r="T97">
-        <v>1.731454965289195</v>
+        <v>1.731411381835569</v>
       </c>
       <c r="U97">
         <v>2.77</v>
@@ -19136,10 +19136,10 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>131.5158045977012</v>
+        <v>131.5129310344828</v>
       </c>
       <c r="AJ97">
-        <v>55.60857325017466</v>
+        <v>55.60715087316739</v>
       </c>
       <c r="AK97">
         <v>56.5</v>
@@ -19160,10 +19160,10 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>34.97985632183909</v>
+        <v>34.97955459770117</v>
       </c>
       <c r="AR97">
-        <v>23.15273929084794</v>
+        <v>23.15294107712355</v>
       </c>
       <c r="AS97">
         <v>1.44</v>
@@ -19184,46 +19184,46 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.01147597091954021</v>
+        <v>0.01150552079022988</v>
       </c>
       <c r="AZ97">
-        <v>0.02161720819043898</v>
+        <v>0.02166861772767304</v>
       </c>
       <c r="BA97">
         <v>-0.0218</v>
       </c>
       <c r="BB97">
-        <v>-0.00076725</v>
+        <v>-0.000752</v>
       </c>
       <c r="BC97">
-        <v>0.0013225</v>
+        <v>0.0013525</v>
       </c>
       <c r="BD97">
         <v>0.01705</v>
       </c>
       <c r="BE97">
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="BF97">
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.3433858639367817</v>
+        <v>0.3439975168103452</v>
       </c>
       <c r="BH97">
-        <v>0.4168409082728598</v>
+        <v>0.4172842166439278</v>
       </c>
       <c r="BI97">
-        <v>-0.0896</v>
+        <v>-0.0895</v>
       </c>
       <c r="BJ97">
-        <v>-0.01075</v>
+        <v>-0.010525</v>
       </c>
       <c r="BK97">
-        <v>0.0376</v>
+        <v>0.03855</v>
       </c>
       <c r="BL97">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="BM97">
         <v>1.41</v>
@@ -19285,10 +19285,10 @@
         <v>696</v>
       </c>
       <c r="S98">
-        <v>5.169367816091953</v>
+        <v>5.169252873563217</v>
       </c>
       <c r="T98">
-        <v>1.731674085772726</v>
+        <v>1.73166755889348</v>
       </c>
       <c r="U98">
         <v>2.77</v>
@@ -19309,10 +19309,10 @@
         <v>696</v>
       </c>
       <c r="AA98">
-        <v>39.27931034482759</v>
+        <v>39.27902298850575</v>
       </c>
       <c r="AB98">
-        <v>0.9422932908567011</v>
+        <v>0.9425159469537591</v>
       </c>
       <c r="AC98">
         <v>38.4</v>
@@ -19333,10 +19333,10 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>131.478448275862</v>
+        <v>131.4768678160919</v>
       </c>
       <c r="AJ98">
-        <v>55.59766152015339</v>
+        <v>55.59573579181107</v>
       </c>
       <c r="AK98">
         <v>56.5</v>
@@ -19357,10 +19357,10 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>34.97689655172416</v>
+        <v>34.97675287356324</v>
       </c>
       <c r="AR98">
-        <v>23.15307502291266</v>
+        <v>23.15270418071824</v>
       </c>
       <c r="AS98">
         <v>1.44</v>
@@ -19381,46 +19381,46 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.01159291504310344</v>
+        <v>0.01161982290804597</v>
       </c>
       <c r="AZ98">
-        <v>0.02171854492347952</v>
+        <v>0.02176937947808943</v>
       </c>
       <c r="BA98">
         <v>-0.0215</v>
       </c>
       <c r="BB98">
-        <v>-0.00065675</v>
+        <v>-0.00064225</v>
       </c>
       <c r="BC98">
-        <v>0.001394</v>
+        <v>0.001431</v>
       </c>
       <c r="BD98">
         <v>0.017075</v>
       </c>
       <c r="BE98">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="BF98">
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.3462116735632184</v>
+        <v>0.346780313433908</v>
       </c>
       <c r="BH98">
-        <v>0.4175268466128412</v>
+        <v>0.4179098526504027</v>
       </c>
       <c r="BI98">
-        <v>-0.0873</v>
+        <v>-0.0872</v>
       </c>
       <c r="BJ98">
-        <v>-0.008749999999999999</v>
+        <v>-0.008185</v>
       </c>
       <c r="BK98">
-        <v>0.0397</v>
+        <v>0.04065</v>
       </c>
       <c r="BL98">
-        <v>0.76925</v>
+        <v>0.77</v>
       </c>
       <c r="BM98">
         <v>1.39</v>
@@ -19482,10 +19482,10 @@
         <v>696</v>
       </c>
       <c r="S99">
-        <v>5.13685344827586</v>
+        <v>5.136795977011493</v>
       </c>
       <c r="T99">
-        <v>1.75235225633725</v>
+        <v>1.752351413062314</v>
       </c>
       <c r="U99">
         <v>2.68</v>
@@ -19506,10 +19506,10 @@
         <v>696</v>
       </c>
       <c r="AA99">
-        <v>39.24410919540233</v>
+        <v>39.24396551724141</v>
       </c>
       <c r="AB99">
-        <v>0.921256451771009</v>
+        <v>0.9213804588162089</v>
       </c>
       <c r="AC99">
         <v>38.4</v>
@@ -19530,10 +19530,10 @@
         <v>696</v>
       </c>
       <c r="AI99">
-        <v>131.1242816091954</v>
+        <v>131.1228448275862</v>
       </c>
       <c r="AJ99">
-        <v>55.63160790453865</v>
+        <v>55.63071878958947</v>
       </c>
       <c r="AK99">
         <v>56</v>
@@ -19554,10 +19554,10 @@
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>34.89795977011497</v>
+        <v>34.89752873563221</v>
       </c>
       <c r="AR99">
-        <v>23.15137539313945</v>
+        <v>23.15118361874427</v>
       </c>
       <c r="AS99">
         <v>1.43</v>
@@ -19578,19 +19578,19 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.01073568318965517</v>
+        <v>0.01076106326149424</v>
       </c>
       <c r="AZ99">
-        <v>0.02226157805876645</v>
+        <v>0.02230947200578973</v>
       </c>
       <c r="BA99">
         <v>-0.0282</v>
       </c>
       <c r="BB99">
-        <v>-0.00205</v>
+        <v>-0.0020425</v>
       </c>
       <c r="BC99">
-        <v>0.000657</v>
+        <v>0.0006850000000000001</v>
       </c>
       <c r="BD99">
         <v>0.01695</v>
@@ -19602,22 +19602,22 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.323825706896552</v>
+        <v>0.324361100287356</v>
       </c>
       <c r="BH99">
-        <v>0.4284393777492197</v>
+        <v>0.4287684670486876</v>
       </c>
       <c r="BI99">
         <v>-0.32</v>
       </c>
       <c r="BJ99">
-        <v>-0.053225</v>
+        <v>-0.052875</v>
       </c>
       <c r="BK99">
-        <v>0.0196</v>
+        <v>0.02055</v>
       </c>
       <c r="BL99">
-        <v>0.7585</v>
+        <v>0.7595000000000001</v>
       </c>
       <c r="BM99">
         <v>1.38</v>
@@ -19679,10 +19679,10 @@
         <v>696</v>
       </c>
       <c r="S100">
-        <v>5.096824712643682</v>
+        <v>5.096781609195406</v>
       </c>
       <c r="T100">
-        <v>1.770999913723881</v>
+        <v>1.770936585439157</v>
       </c>
       <c r="U100">
         <v>2.62</v>
@@ -19727,10 +19727,10 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>130.657183908046</v>
+        <v>130.6557471264368</v>
       </c>
       <c r="AJ100">
-        <v>55.64018376170797</v>
+        <v>55.63778278650075</v>
       </c>
       <c r="AK100">
         <v>55.6</v>
@@ -19751,10 +19751,10 @@
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>34.79876436781607</v>
+        <v>34.79862068965515</v>
       </c>
       <c r="AR100">
-        <v>23.13951960157945</v>
+        <v>23.1395143080254</v>
       </c>
       <c r="AS100">
         <v>1.43</v>
@@ -19775,46 +19775,46 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.01079086494252874</v>
+        <v>0.0108187959770115</v>
       </c>
       <c r="AZ100">
-        <v>0.0224657503451395</v>
+        <v>0.02251573147040996</v>
       </c>
       <c r="BA100">
         <v>-0.0308</v>
       </c>
       <c r="BB100">
-        <v>-0.0019825</v>
+        <v>-0.00198</v>
       </c>
       <c r="BC100">
-        <v>0.000809</v>
+        <v>0.0008335</v>
       </c>
       <c r="BD100">
-        <v>0.017</v>
+        <v>0.017075</v>
       </c>
       <c r="BE100">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="BF100">
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.3268404152298852</v>
+        <v>0.3274143375</v>
       </c>
       <c r="BH100">
-        <v>0.4297400834394029</v>
+        <v>0.4301506876458808</v>
       </c>
       <c r="BI100">
         <v>-0.273</v>
       </c>
       <c r="BJ100">
-        <v>-0.0474</v>
+        <v>-0.046875</v>
       </c>
       <c r="BK100">
-        <v>0.02305</v>
+        <v>0.02395</v>
       </c>
       <c r="BL100">
-        <v>0.7635000000000001</v>
+        <v>0.76525</v>
       </c>
       <c r="BM100">
         <v>1.4</v>
@@ -19876,10 +19876,10 @@
         <v>696</v>
       </c>
       <c r="S101">
-        <v>5.020043103448271</v>
+        <v>5.01989942528735</v>
       </c>
       <c r="T101">
-        <v>1.784652838379248</v>
+        <v>1.784575919621171</v>
       </c>
       <c r="U101">
         <v>2.52</v>
@@ -19900,10 +19900,10 @@
         <v>696</v>
       </c>
       <c r="AA101">
-        <v>39.17456896551737</v>
+        <v>39.17442528735645</v>
       </c>
       <c r="AB101">
-        <v>0.8959379721348857</v>
+        <v>0.8960543165985401</v>
       </c>
       <c r="AC101">
         <v>38.4</v>
@@ -19924,10 +19924,10 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>130.1897988505746</v>
+        <v>130.1882183908045</v>
       </c>
       <c r="AJ101">
-        <v>55.52916580950097</v>
+        <v>55.52980563833591</v>
       </c>
       <c r="AK101">
         <v>55.3</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>34.68652298850579</v>
+        <v>34.68623563218395</v>
       </c>
       <c r="AR101">
-        <v>23.10876501890033</v>
+        <v>23.10837756267043</v>
       </c>
       <c r="AS101">
         <v>1.42</v>
@@ -19972,10 +19972,10 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.01098094554597701</v>
+        <v>0.01100789267241378</v>
       </c>
       <c r="AZ101">
-        <v>0.02260562812572374</v>
+        <v>0.02266344939237551</v>
       </c>
       <c r="BA101">
         <v>-0.032</v>
@@ -19984,34 +19984,34 @@
         <v>-0.001755</v>
       </c>
       <c r="BC101">
-        <v>0.00104</v>
+        <v>0.0010645</v>
       </c>
       <c r="BD101">
         <v>0.01715</v>
       </c>
       <c r="BE101">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="BF101">
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.3329761163793108</v>
+        <v>0.3335303218390808</v>
       </c>
       <c r="BH101">
-        <v>0.4305874895324107</v>
+        <v>0.4309636712339737</v>
       </c>
       <c r="BI101">
         <v>-0.209</v>
       </c>
       <c r="BJ101">
-        <v>-0.03555</v>
+        <v>-0.035525</v>
       </c>
       <c r="BK101">
-        <v>0.02875</v>
+        <v>0.0296</v>
       </c>
       <c r="BL101">
-        <v>0.77425</v>
+        <v>0.775</v>
       </c>
       <c r="BM101">
         <v>1.42</v>
@@ -20073,10 +20073,10 @@
         <v>696</v>
       </c>
       <c r="S102">
-        <v>5.010689655172404</v>
+        <v>5.010617816091945</v>
       </c>
       <c r="T102">
-        <v>1.784975049284748</v>
+        <v>1.784917802085046</v>
       </c>
       <c r="U102">
         <v>2.52</v>
@@ -20121,10 +20121,10 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>130.1028735632183</v>
+        <v>130.1014367816091</v>
       </c>
       <c r="AJ102">
-        <v>55.51286135575626</v>
+        <v>55.51290288232002</v>
       </c>
       <c r="AK102">
         <v>55.3</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>34.66303160919544</v>
+        <v>34.6625862068966</v>
       </c>
       <c r="AR102">
-        <v>23.10321074274007</v>
+        <v>23.10314713822339</v>
       </c>
       <c r="AS102">
         <v>1.42</v>
@@ -20169,22 +20169,22 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.0114530324698276</v>
+        <v>0.01147907875000002</v>
       </c>
       <c r="AZ102">
-        <v>0.02260051811333263</v>
+        <v>0.02264266835058774</v>
       </c>
       <c r="BA102">
         <v>-0.0303</v>
       </c>
       <c r="BB102">
-        <v>-0.0010575</v>
+        <v>-0.0010475</v>
       </c>
       <c r="BC102">
-        <v>0.0014</v>
+        <v>0.001429</v>
       </c>
       <c r="BD102">
-        <v>0.017275</v>
+        <v>0.0173</v>
       </c>
       <c r="BE102">
         <v>0.142</v>
@@ -20193,22 +20193,22 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.3457182900143679</v>
+        <v>0.3462662973850579</v>
       </c>
       <c r="BH102">
-        <v>0.4290201192576156</v>
+        <v>0.4293745978583036</v>
       </c>
       <c r="BI102">
         <v>-0.114</v>
       </c>
       <c r="BJ102">
-        <v>-0.015525</v>
+        <v>-0.0153</v>
       </c>
       <c r="BK102">
-        <v>0.03875</v>
+        <v>0.0396</v>
       </c>
       <c r="BL102">
-        <v>0.78125</v>
+        <v>0.782</v>
       </c>
       <c r="BM102">
         <v>1.45</v>
@@ -20270,10 +20270,10 @@
         <v>696</v>
       </c>
       <c r="S103">
-        <v>5.048318965517239</v>
+        <v>5.048261494252872</v>
       </c>
       <c r="T103">
-        <v>1.76543875696367</v>
+        <v>1.765417429354227</v>
       </c>
       <c r="U103">
         <v>2.59</v>
@@ -20318,10 +20318,10 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>130.4076149425288</v>
+        <v>130.4074712643679</v>
       </c>
       <c r="AJ103">
-        <v>55.47017073355542</v>
+        <v>55.47032963017028</v>
       </c>
       <c r="AK103">
         <v>55.5</v>
@@ -20342,10 +20342,10 @@
         <v>696</v>
       </c>
       <c r="AQ103">
-        <v>34.73870689655168</v>
+        <v>34.73840517241376</v>
       </c>
       <c r="AR103">
-        <v>23.1061210936527</v>
+        <v>23.10592226957593</v>
       </c>
       <c r="AS103">
         <v>1.42</v>
@@ -20366,22 +20366,22 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.01238906633620691</v>
+        <v>0.01241117257183908</v>
       </c>
       <c r="AZ103">
-        <v>0.02236178789038438</v>
+        <v>0.02238610329466977</v>
       </c>
       <c r="BA103">
         <v>-0.0251</v>
       </c>
       <c r="BB103">
-        <v>8.35E-05</v>
+        <v>9.0725E-05</v>
       </c>
       <c r="BC103">
         <v>0.003445</v>
       </c>
       <c r="BD103">
-        <v>0.017725</v>
+        <v>0.01775</v>
       </c>
       <c r="BE103">
         <v>0.144</v>
@@ -20390,22 +20390,22 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.3693424935344826</v>
+        <v>0.3698548537356317</v>
       </c>
       <c r="BH103">
-        <v>0.4238794096811031</v>
+        <v>0.4241713681169534</v>
       </c>
       <c r="BI103">
-        <v>-0.09810000000000001</v>
+        <v>-0.098</v>
       </c>
       <c r="BJ103">
-        <v>0.0014725</v>
+        <v>0.0014925</v>
       </c>
       <c r="BK103">
-        <v>0.0852</v>
+        <v>0.08565</v>
       </c>
       <c r="BL103">
-        <v>0.8025</v>
+        <v>0.8035000000000001</v>
       </c>
       <c r="BM103">
         <v>1.47</v>
@@ -20467,10 +20467,10 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>5.068951149425287</v>
+        <v>5.068836206896552</v>
       </c>
       <c r="T104">
-        <v>1.75417115820733</v>
+        <v>1.754193970279067</v>
       </c>
       <c r="U104">
         <v>2.63</v>
@@ -20515,10 +20515,10 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>130.6613505747127</v>
+        <v>130.6597701149426</v>
       </c>
       <c r="AJ104">
-        <v>55.47111491942037</v>
+        <v>55.47047349344849</v>
       </c>
       <c r="AK104">
         <v>55.9</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>34.80693965517239</v>
+        <v>34.80665229885055</v>
       </c>
       <c r="AR104">
-        <v>23.11340210993687</v>
+        <v>23.11317746476627</v>
       </c>
       <c r="AS104">
         <v>1.43</v>
@@ -20563,46 +20563,46 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.01220179456896551</v>
+        <v>0.01222602094827585</v>
       </c>
       <c r="AZ104">
-        <v>0.02248823479117313</v>
+        <v>0.0225270412001962</v>
       </c>
       <c r="BA104">
         <v>-0.0229</v>
       </c>
       <c r="BB104">
-        <v>-0.00015425</v>
+        <v>-0.0001495</v>
       </c>
       <c r="BC104">
-        <v>0.002165</v>
+        <v>0.00218</v>
       </c>
       <c r="BD104">
-        <v>0.017575</v>
+        <v>0.0176</v>
       </c>
       <c r="BE104">
-        <v>0.145</v>
+        <v>0.146</v>
       </c>
       <c r="BF104">
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.3628440559051722</v>
+        <v>0.3633377916666667</v>
       </c>
       <c r="BH104">
-        <v>0.4272221003686315</v>
+        <v>0.4275013948080852</v>
       </c>
       <c r="BI104">
-        <v>-0.09130000000000001</v>
+        <v>-0.0912</v>
       </c>
       <c r="BJ104">
-        <v>-0.00277</v>
+        <v>-0.00239</v>
       </c>
       <c r="BK104">
-        <v>0.06129999999999999</v>
+        <v>0.0621</v>
       </c>
       <c r="BL104">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="BM104">
         <v>1.47</v>
@@ -20640,10 +20640,10 @@
         <v>696</v>
       </c>
       <c r="K105">
-        <v>39.19339080459781</v>
+        <v>39.19324712643689</v>
       </c>
       <c r="L105">
-        <v>0.9131726634317656</v>
+        <v>0.9132897776595021</v>
       </c>
       <c r="M105">
         <v>38.4</v>
@@ -20664,10 +20664,10 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>5.069727011494258</v>
+        <v>5.069640804597706</v>
       </c>
       <c r="T105">
-        <v>1.75411452508001</v>
+        <v>1.754117626549439</v>
       </c>
       <c r="U105">
         <v>2.63</v>
@@ -20712,10 +20712,10 @@
         <v>696</v>
       </c>
       <c r="AI105">
-        <v>130.7096264367817</v>
+        <v>130.7093390804599</v>
       </c>
       <c r="AJ105">
-        <v>55.49207481821193</v>
+        <v>55.49235023171049</v>
       </c>
       <c r="AK105">
         <v>55.9</v>
@@ -20736,10 +20736,10 @@
         <v>696</v>
       </c>
       <c r="AQ105">
-        <v>34.81863505747126</v>
+        <v>34.81849137931034</v>
       </c>
       <c r="AR105">
-        <v>23.1182666013747</v>
+        <v>23.11806537411063</v>
       </c>
       <c r="AS105">
         <v>1.43</v>
@@ -20760,46 +20760,46 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.01192578631609195</v>
+        <v>0.01195253561781608</v>
       </c>
       <c r="AZ105">
-        <v>0.02269054716551739</v>
+        <v>0.02274231637570378</v>
       </c>
       <c r="BA105">
-        <v>-0.0233</v>
+        <v>-0.0232</v>
       </c>
       <c r="BB105">
-        <v>-0.00082675</v>
+        <v>-0.000779</v>
       </c>
       <c r="BC105">
-        <v>0.0016165</v>
+        <v>0.001665</v>
       </c>
       <c r="BD105">
         <v>0.0175</v>
       </c>
       <c r="BE105">
-        <v>0.146</v>
+        <v>0.147</v>
       </c>
       <c r="BF105">
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.3547775997126441</v>
+        <v>0.3553071103448276</v>
       </c>
       <c r="BH105">
-        <v>0.4311779773213847</v>
+        <v>0.4315208304502329</v>
       </c>
       <c r="BI105">
-        <v>-0.0936</v>
+        <v>-0.0935</v>
       </c>
       <c r="BJ105">
-        <v>-0.011325</v>
+        <v>-0.01105</v>
       </c>
       <c r="BK105">
-        <v>0.0443</v>
+        <v>0.04505</v>
       </c>
       <c r="BL105">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="BM105">
         <v>1.47</v>
@@ -20837,10 +20837,10 @@
         <v>696</v>
       </c>
       <c r="K106">
-        <v>39.1955459770116</v>
+        <v>39.19540229885068</v>
       </c>
       <c r="L106">
-        <v>0.9139181145951938</v>
+        <v>0.9140354725704091</v>
       </c>
       <c r="M106">
         <v>38.4</v>
@@ -20861,10 +20861,10 @@
         <v>696</v>
       </c>
       <c r="S106">
-        <v>5.074640804597705</v>
+        <v>5.074554597701153</v>
       </c>
       <c r="T106">
-        <v>1.751433661545028</v>
+        <v>1.751416143115999</v>
       </c>
       <c r="U106">
         <v>2.64</v>
@@ -20885,10 +20885,10 @@
         <v>696</v>
       </c>
       <c r="AA106">
-        <v>39.23678160919542</v>
+        <v>39.2366379310345</v>
       </c>
       <c r="AB106">
-        <v>0.9264757939855476</v>
+        <v>0.9264426686836763</v>
       </c>
       <c r="AC106">
         <v>38.4</v>
@@ -20909,10 +20909,10 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>130.7593390804598</v>
+        <v>130.7576149425288</v>
       </c>
       <c r="AJ106">
-        <v>55.51134486804438</v>
+        <v>55.50814548614024</v>
       </c>
       <c r="AK106">
         <v>56</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>34.82640804597697</v>
+        <v>34.82610632183905</v>
       </c>
       <c r="AR106">
-        <v>23.11822189585664</v>
+        <v>23.11814783562539</v>
       </c>
       <c r="AS106">
         <v>1.43</v>
@@ -20957,46 +20957,46 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.01216099130114944</v>
+        <v>0.01218425195488506</v>
       </c>
       <c r="AZ106">
-        <v>0.0227420891871046</v>
+        <v>0.02278631415644976</v>
       </c>
       <c r="BA106">
         <v>-0.0221</v>
       </c>
       <c r="BB106">
-        <v>-0.0005865</v>
+        <v>-0.000512</v>
       </c>
       <c r="BC106">
-        <v>0.001835</v>
+        <v>0.001885</v>
       </c>
       <c r="BD106">
         <v>0.017525</v>
       </c>
       <c r="BE106">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="BF106">
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.3605454671408044</v>
+        <v>0.361073424281609</v>
       </c>
       <c r="BH106">
-        <v>0.4308528330833388</v>
+        <v>0.4311940112365701</v>
       </c>
       <c r="BI106">
-        <v>-0.0886</v>
+        <v>-0.0885</v>
       </c>
       <c r="BJ106">
-        <v>-0.0072325</v>
+        <v>-0.0069925</v>
       </c>
       <c r="BK106">
-        <v>0.0512</v>
+        <v>0.052</v>
       </c>
       <c r="BL106">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="BM106">
         <v>1.48</v>
@@ -21034,10 +21034,10 @@
         <v>696</v>
       </c>
       <c r="K107">
-        <v>39.19454022988516</v>
+        <v>39.19439655172425</v>
       </c>
       <c r="L107">
-        <v>0.9133535746555457</v>
+        <v>0.9133763331582985</v>
       </c>
       <c r="M107">
         <v>38.4</v>
@@ -21058,10 +21058,10 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>5.073160919540229</v>
+        <v>5.073089080459769</v>
       </c>
       <c r="T107">
-        <v>1.752144275611129</v>
+        <v>1.75219461916197</v>
       </c>
       <c r="U107">
         <v>2.63</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>34.8255028735632</v>
+        <v>34.82534482758619</v>
       </c>
       <c r="AR107">
-        <v>23.11828942490782</v>
+        <v>23.11841686712294</v>
       </c>
       <c r="AS107">
         <v>1.43</v>
@@ -21154,43 +21154,43 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.01208302817528735</v>
+        <v>0.01210664070402299</v>
       </c>
       <c r="AZ107">
-        <v>0.02290007361973411</v>
+        <v>0.02294349596111736</v>
       </c>
       <c r="BA107">
         <v>-0.0224</v>
       </c>
       <c r="BB107">
-        <v>-0.000705</v>
+        <v>-0.00066425</v>
       </c>
       <c r="BC107">
-        <v>0.001744</v>
+        <v>0.0017915</v>
       </c>
       <c r="BD107">
         <v>0.0176</v>
       </c>
       <c r="BE107">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="BF107">
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.3582181522988505</v>
+        <v>0.35872895933908</v>
       </c>
       <c r="BH107">
-        <v>0.4337870512053765</v>
+        <v>0.4341261352443264</v>
       </c>
       <c r="BI107">
         <v>-0.0907</v>
       </c>
       <c r="BJ107">
-        <v>-0.011025</v>
+        <v>-0.011</v>
       </c>
       <c r="BK107">
-        <v>0.04635</v>
+        <v>0.0472</v>
       </c>
       <c r="BL107">
         <v>0.8</v>
@@ -21255,10 +21255,10 @@
         <v>696</v>
       </c>
       <c r="S108">
-        <v>5.077500000000007</v>
+        <v>5.077428160919546</v>
       </c>
       <c r="T108">
-        <v>1.749601414012251</v>
+        <v>1.749600610708053</v>
       </c>
       <c r="U108">
         <v>2.64</v>
@@ -21279,10 +21279,10 @@
         <v>696</v>
       </c>
       <c r="AA108">
-        <v>39.24094827586207</v>
+        <v>39.24080459770116</v>
       </c>
       <c r="AB108">
-        <v>0.9305548543149484</v>
+        <v>0.9305534436040123</v>
       </c>
       <c r="AC108">
         <v>38.4</v>
@@ -21303,10 +21303,10 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>130.7887931034483</v>
+        <v>130.7873563218391</v>
       </c>
       <c r="AJ108">
-        <v>55.51337116246754</v>
+        <v>55.51413027375343</v>
       </c>
       <c r="AK108">
         <v>56</v>
@@ -21351,19 +21351,19 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.01233026827772989</v>
+        <v>0.01235537434942529</v>
       </c>
       <c r="AZ108">
-        <v>0.02296108878565815</v>
+        <v>0.02300424686699162</v>
       </c>
       <c r="BA108">
-        <v>-0.0213</v>
+        <v>-0.0212</v>
       </c>
       <c r="BB108">
-        <v>-0.00041225</v>
+        <v>-0.000367</v>
       </c>
       <c r="BC108">
-        <v>0.00197</v>
+        <v>0.002015</v>
       </c>
       <c r="BD108">
         <v>0.0177</v>
@@ -21375,25 +21375,25 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.3645697900143683</v>
+        <v>0.3650518246120692</v>
       </c>
       <c r="BH108">
-        <v>0.4342558742287093</v>
+        <v>0.4345618012880316</v>
       </c>
       <c r="BI108">
-        <v>-0.0857</v>
+        <v>-0.0856</v>
       </c>
       <c r="BJ108">
-        <v>-0.0064675</v>
+        <v>-0.006235</v>
       </c>
       <c r="BK108">
-        <v>0.05345</v>
+        <v>0.05425</v>
       </c>
       <c r="BL108">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="BM108">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="109" spans="1:65">
@@ -21428,10 +21428,10 @@
         <v>696</v>
       </c>
       <c r="K109">
-        <v>39.2252873563219</v>
+        <v>39.22356321839087</v>
       </c>
       <c r="L109">
-        <v>0.9330656076069364</v>
+        <v>0.933557875436255</v>
       </c>
       <c r="M109">
         <v>38.4</v>
@@ -21452,10 +21452,10 @@
         <v>696</v>
       </c>
       <c r="S109">
-        <v>5.10432471264368</v>
+        <v>5.103275862068967</v>
       </c>
       <c r="T109">
-        <v>1.736217621630936</v>
+        <v>1.736302998387059</v>
       </c>
       <c r="U109">
         <v>2.69</v>
@@ -21464,7 +21464,7 @@
         <v>3.5075</v>
       </c>
       <c r="W109">
-        <v>4.835</v>
+        <v>4.83</v>
       </c>
       <c r="X109">
         <v>6.3575</v>
@@ -21476,10 +21476,10 @@
         <v>696</v>
       </c>
       <c r="AA109">
-        <v>39.2656609195402</v>
+        <v>39.26551724137929</v>
       </c>
       <c r="AB109">
-        <v>0.9435653309548178</v>
+        <v>0.9436896924696893</v>
       </c>
       <c r="AC109">
         <v>38.4</v>
@@ -21500,10 +21500,10 @@
         <v>696</v>
       </c>
       <c r="AI109">
-        <v>131.0783045977012</v>
+        <v>131.0708333333334</v>
       </c>
       <c r="AJ109">
-        <v>55.51359600658125</v>
+        <v>55.51480919689686</v>
       </c>
       <c r="AK109">
         <v>56.2</v>
@@ -21524,10 +21524,10 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>34.88491379310342</v>
+        <v>34.8838793103448</v>
       </c>
       <c r="AR109">
-        <v>23.12087075464481</v>
+        <v>23.12028227671966</v>
       </c>
       <c r="AS109">
         <v>1.43</v>
@@ -21548,46 +21548,46 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.01289929248563217</v>
+        <v>0.01292592380747127</v>
       </c>
       <c r="AZ109">
-        <v>0.02283921974051231</v>
+        <v>0.02290260178073366</v>
       </c>
       <c r="BA109">
         <v>-0.018</v>
       </c>
       <c r="BB109">
-        <v>0.000122</v>
+        <v>0.00012475</v>
       </c>
       <c r="BC109">
-        <v>0.00285</v>
+        <v>0.002865</v>
       </c>
       <c r="BD109">
         <v>0.01805</v>
       </c>
       <c r="BE109">
-        <v>0.151</v>
+        <v>0.152</v>
       </c>
       <c r="BF109">
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.3791663768678156</v>
+        <v>0.3796601122126428</v>
       </c>
       <c r="BH109">
-        <v>0.4320047727943526</v>
+        <v>0.432325765029235</v>
       </c>
       <c r="BI109">
         <v>-0.0752</v>
       </c>
       <c r="BJ109">
-        <v>0.0021075</v>
+        <v>0.00227</v>
       </c>
       <c r="BK109">
-        <v>0.0764</v>
+        <v>0.07715</v>
       </c>
       <c r="BL109">
-        <v>0.8162499999999999</v>
+        <v>0.8172499999999999</v>
       </c>
       <c r="BM109">
         <v>1.54</v>
@@ -21649,10 +21649,10 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>5.118318965517245</v>
+        <v>5.118218390804602</v>
       </c>
       <c r="T110">
-        <v>1.728511870125562</v>
+        <v>1.728531872084622</v>
       </c>
       <c r="U110">
         <v>2.72</v>
@@ -21745,22 +21745,22 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.01279592520689656</v>
+        <v>0.01282181125431034</v>
       </c>
       <c r="AZ110">
-        <v>0.02300176541904103</v>
+        <v>0.02305537864898147</v>
       </c>
       <c r="BA110">
         <v>-0.0165</v>
       </c>
       <c r="BB110">
-        <v>-4.735E-05</v>
+        <v>-4.545E-05</v>
       </c>
       <c r="BC110">
-        <v>0.002395</v>
+        <v>0.002445</v>
       </c>
       <c r="BD110">
-        <v>0.0179</v>
+        <v>0.017975</v>
       </c>
       <c r="BE110">
         <v>0.153</v>
@@ -21769,22 +21769,22 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.3751858181465516</v>
+        <v>0.3756760132902296</v>
       </c>
       <c r="BH110">
-        <v>0.4348968680571718</v>
+        <v>0.4351961407155933</v>
       </c>
       <c r="BI110">
-        <v>-0.0706</v>
+        <v>-0.07049999999999999</v>
       </c>
       <c r="BJ110">
-        <v>-0.00022075</v>
+        <v>-0.0002205</v>
       </c>
       <c r="BK110">
-        <v>0.0635</v>
+        <v>0.06425</v>
       </c>
       <c r="BL110">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="BM110">
         <v>1.54</v>
@@ -21846,10 +21846,10 @@
         <v>696</v>
       </c>
       <c r="S111">
-        <v>5.121120689655173</v>
+        <v>5.121048850574713</v>
       </c>
       <c r="T111">
-        <v>1.728135072434593</v>
+        <v>1.728106017905435</v>
       </c>
       <c r="U111">
         <v>2.72</v>
@@ -21870,10 +21870,10 @@
         <v>696</v>
       </c>
       <c r="AA111">
-        <v>39.28318965517242</v>
+        <v>39.28275862068966</v>
       </c>
       <c r="AB111">
-        <v>0.9486478972958896</v>
+        <v>0.9485718939833074</v>
       </c>
       <c r="AC111">
         <v>38.4</v>
@@ -21894,10 +21894,10 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>131.3290229885058</v>
+        <v>131.323275862069</v>
       </c>
       <c r="AJ111">
-        <v>55.50851323307292</v>
+        <v>55.51087991006783</v>
       </c>
       <c r="AK111">
         <v>56.5</v>
@@ -21942,22 +21942,22 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.01266781398706897</v>
+        <v>0.01269032597557472</v>
       </c>
       <c r="AZ111">
-        <v>0.02315971064337163</v>
+        <v>0.02319830364956963</v>
       </c>
       <c r="BA111">
         <v>-0.0165</v>
       </c>
       <c r="BB111">
-        <v>-0.000266</v>
+        <v>-0.0002545</v>
       </c>
       <c r="BC111">
-        <v>0.00224</v>
+        <v>0.002285</v>
       </c>
       <c r="BD111">
-        <v>0.017825</v>
+        <v>0.017925</v>
       </c>
       <c r="BE111">
         <v>0.154</v>
@@ -21966,22 +21966,22 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.3712046287787359</v>
+        <v>0.3717003805316094</v>
       </c>
       <c r="BH111">
-        <v>0.4375983701464304</v>
+        <v>0.4379585569295287</v>
       </c>
       <c r="BI111">
-        <v>-0.07049999999999999</v>
+        <v>-0.0704</v>
       </c>
       <c r="BJ111">
-        <v>-0.00362</v>
+        <v>-0.0034075</v>
       </c>
       <c r="BK111">
-        <v>0.0549</v>
+        <v>0.05565</v>
       </c>
       <c r="BL111">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="BM111">
         <v>1.54</v>
@@ -22019,10 +22019,10 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>39.23290229885068</v>
+        <v>39.23247126436792</v>
       </c>
       <c r="L112">
-        <v>0.9202568748021397</v>
+        <v>0.9209520796360834</v>
       </c>
       <c r="M112">
         <v>38.4</v>
@@ -22043,10 +22043,10 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>5.111235632183915</v>
+        <v>5.111149425287363</v>
       </c>
       <c r="T112">
-        <v>1.747040143323328</v>
+        <v>1.746500006883149</v>
       </c>
       <c r="U112">
         <v>2.64</v>
@@ -22058,7 +22058,7 @@
         <v>4.855</v>
       </c>
       <c r="X112">
-        <v>6.38</v>
+        <v>6.3725</v>
       </c>
       <c r="Y112">
         <v>8.960000000000001</v>
@@ -22067,10 +22067,10 @@
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>39.24784482758622</v>
+        <v>39.24928160919542</v>
       </c>
       <c r="AB112">
-        <v>0.9355156830075427</v>
+        <v>0.9358869457677105</v>
       </c>
       <c r="AC112">
         <v>38.4</v>
@@ -22091,16 +22091,16 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>131.0038793103447</v>
+        <v>130.9989942528735</v>
       </c>
       <c r="AJ112">
-        <v>55.58352609738343</v>
+        <v>55.55597668792809</v>
       </c>
       <c r="AK112">
         <v>55.9</v>
       </c>
       <c r="AL112">
-        <v>100.3</v>
+        <v>101.05</v>
       </c>
       <c r="AM112">
         <v>115</v>
@@ -22109,16 +22109,16 @@
         <v>140.5</v>
       </c>
       <c r="AO112">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AP112">
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>34.87172413793105</v>
+        <v>34.8734195402299</v>
       </c>
       <c r="AR112">
-        <v>23.12982043963665</v>
+        <v>23.12913478839413</v>
       </c>
       <c r="AS112">
         <v>1.43</v>
@@ -22139,46 +22139,46 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.01265280581896551</v>
+        <v>0.01260042352011494</v>
       </c>
       <c r="AZ112">
-        <v>0.02329016014182037</v>
+        <v>0.02344316667663104</v>
       </c>
       <c r="BA112">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
       <c r="BB112">
-        <v>8.165000000000001E-05</v>
+        <v>-0.000104</v>
       </c>
       <c r="BC112">
-        <v>0.003585</v>
+        <v>0.002405</v>
       </c>
       <c r="BD112">
-        <v>0.0179</v>
+        <v>0.018</v>
       </c>
       <c r="BE112">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="BF112">
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.3711373576149427</v>
+        <v>0.3706452330459769</v>
       </c>
       <c r="BH112">
-        <v>0.4356550473006119</v>
+        <v>0.4405320405386259</v>
       </c>
       <c r="BI112">
-        <v>-0.186</v>
+        <v>-0.2</v>
       </c>
       <c r="BJ112">
-        <v>0.00083825</v>
+        <v>-0.0013625</v>
       </c>
       <c r="BK112">
-        <v>0.0916</v>
+        <v>0.07055</v>
       </c>
       <c r="BL112">
-        <v>0.80625</v>
+        <v>0.8172499999999999</v>
       </c>
       <c r="BM112">
         <v>1.54</v>
